--- a/GantExcel/未来創造展_ガントチャート/01_ゲームメイン.xlsx
+++ b/GantExcel/未来創造展_ガントチャート/01_ゲームメイン.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hyllos\Desktop\未来創造展_ガントチャート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\SourceTree\NoOverTime\GantExcel\未来創造展_ガントチャート\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">プロジェクト!$A$9:$DE$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">プロジェクト!$A$9:$DE$135</definedName>
     <definedName name="№列">プロジェクト!$A$9</definedName>
     <definedName name="ステータス列">プロジェクト!$H$9</definedName>
     <definedName name="バージョン">プロジェクト!$D$1</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="61">
   <si>
     <t>報告日：</t>
     <rPh sb="0" eb="2">
@@ -418,6 +418,22 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ヒロバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バラが飛んでいく</t>
+  </si>
+  <si>
+    <t>当たった女性のCP+2</t>
+  </si>
+  <si>
+    <t>ファーストアタックはCP+3</t>
+  </si>
+  <si>
+    <t>本田</t>
+    <rPh sb="0" eb="2">
+      <t>ホンダ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1054,7 +1070,7 @@
     <cellStyle name="標準_TimeLine" xfId="1"/>
     <cellStyle name="標準_静岡3S019600-管理-003【関西ホスト移設スケジュール】 (version 1)" xfId="3"/>
   </cellStyles>
-  <dxfs count="538">
+  <dxfs count="548">
     <dxf>
       <fill>
         <patternFill>
@@ -1107,6 +1123,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor indexed="45"/>
         </patternFill>
       </fill>
@@ -4811,6 +4834,69 @@
       <fill>
         <patternFill>
           <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7492,13 +7578,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7560,13 +7646,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7628,13 +7714,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7696,13 +7782,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7764,13 +7850,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7832,13 +7918,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7900,13 +7986,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7968,13 +8054,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8036,13 +8122,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8104,13 +8190,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8172,13 +8258,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8240,13 +8326,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8308,13 +8394,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8376,13 +8462,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8444,13 +8530,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8512,13 +8598,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8580,13 +8666,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8648,13 +8734,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8716,13 +8802,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8784,13 +8870,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8852,13 +8938,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8926,7 +9012,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14388,7 +14474,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>342899</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19011,14 +19097,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="BaseSheet1"/>
-  <dimension ref="A1:DE132"/>
+  <dimension ref="A1:DE135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="8" ySplit="9" topLeftCell="I43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane xSplit="8" ySplit="9" topLeftCell="I64" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14:G19"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65:H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -21026,7 +21112,7 @@
     </row>
     <row r="10" spans="1:109" ht="27" customHeight="1">
       <c r="A10" s="15">
-        <f t="shared" ref="A10:A68" si="9">ROW()-ROW(№列)</f>
+        <f t="shared" ref="A10:A71" si="9">ROW()-ROW(№列)</f>
         <v>1</v>
       </c>
       <c r="B10" s="22"/>
@@ -24506,7 +24592,7 @@
         <v>37</v>
       </c>
       <c r="D36" s="16">
-        <f t="shared" ref="D36:D69" si="15">F36-E36+1</f>
+        <f t="shared" ref="D36:D72" si="15">F36-E36+1</f>
         <v>2</v>
       </c>
       <c r="E36" s="17">
@@ -26098,7 +26184,7 @@
     </row>
     <row r="48" spans="1:109" ht="27" customHeight="1">
       <c r="A48" s="15">
-        <f t="shared" ref="A48:A96" si="18">ROW()-ROW(№列)</f>
+        <f t="shared" ref="A48:A99" si="18">ROW()-ROW(№列)</f>
         <v>39</v>
       </c>
       <c r="B48" s="55" t="s">
@@ -26232,39 +26318,21 @@
       <c r="DE48" s="24"/>
     </row>
     <row r="49" spans="1:109" ht="27" customHeight="1">
-      <c r="A49" s="15">
-        <f t="shared" si="18"/>
-        <v>40</v>
-      </c>
-      <c r="B49" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="16">
-        <f>F49-E49+1</f>
-        <v>1</v>
-      </c>
-      <c r="E49" s="17">
-        <v>42667</v>
-      </c>
-      <c r="F49" s="17">
-        <v>42667</v>
-      </c>
-      <c r="G49" s="18">
-        <v>0</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="A49" s="15"/>
+      <c r="B49" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="19"/>
       <c r="I49" s="23"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
-      <c r="M49" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="M49" s="24"/>
       <c r="N49" s="24"/>
       <c r="O49" s="24"/>
       <c r="P49" s="24"/>
@@ -26368,17 +26436,17 @@
         <v>41</v>
       </c>
       <c r="B50" s="56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="16">
         <f>F50-E50+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="17">
-        <v>42668</v>
+        <v>42667</v>
       </c>
       <c r="F50" s="17">
         <v>42668</v>
@@ -26393,10 +26461,10 @@
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24" t="s">
+      <c r="M50" s="24" t="s">
         <v>39</v>
       </c>
+      <c r="N50" s="24"/>
       <c r="O50" s="24"/>
       <c r="P50" s="24"/>
       <c r="Q50" s="24"/>
@@ -26494,41 +26562,27 @@
       <c r="DE50" s="24"/>
     </row>
     <row r="51" spans="1:109" ht="27" customHeight="1">
-      <c r="A51" s="15">
-        <f t="shared" si="18"/>
-        <v>42</v>
-      </c>
+      <c r="A51" s="15"/>
       <c r="B51" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="16">
-        <f>F51-E51+1</f>
-        <v>1</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="17">
-        <v>42669</v>
+        <v>42667</v>
       </c>
       <c r="F51" s="17">
-        <v>42669</v>
-      </c>
-      <c r="G51" s="18">
-        <v>0</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>40</v>
-      </c>
+        <v>42667</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
       <c r="I51" s="23"/>
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
       <c r="N51" s="24"/>
-      <c r="O51" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="O51" s="24"/>
       <c r="P51" s="24"/>
       <c r="Q51" s="24"/>
       <c r="R51" s="24"/>
@@ -26625,74 +26679,38 @@
       <c r="DE51" s="24"/>
     </row>
     <row r="52" spans="1:109" ht="27" customHeight="1">
-      <c r="A52" s="15">
-        <f t="shared" si="9"/>
-        <v>43</v>
-      </c>
-      <c r="B52" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="16">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
+      <c r="A52" s="15"/>
+      <c r="B52" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="17">
-        <v>42669</v>
+        <v>42668</v>
       </c>
       <c r="F52" s="17">
-        <v>42680</v>
-      </c>
-      <c r="G52" s="18">
-        <v>0</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>40</v>
-      </c>
+        <v>42668</v>
+      </c>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
       <c r="I52" s="23"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
       <c r="N52" s="24"/>
-      <c r="O52" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="P52" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q52" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="R52" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="S52" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T52" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="U52" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="V52" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="W52" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="X52" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y52" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z52" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="24"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="24"/>
       <c r="AA52" s="24"/>
       <c r="AB52" s="24"/>
       <c r="AC52" s="24"/>
@@ -26778,22 +26796,25 @@
       <c r="DE52" s="24"/>
     </row>
     <row r="53" spans="1:109" ht="27" customHeight="1">
-      <c r="A53" s="15"/>
+      <c r="A53" s="15">
+        <f t="shared" si="18"/>
+        <v>44</v>
+      </c>
       <c r="B53" s="56" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="16">
-        <f t="shared" ref="D53:D61" si="19">F53-E53+1</f>
-        <v>12</v>
+        <f>F53-E53+1</f>
+        <v>1</v>
       </c>
       <c r="E53" s="17">
-        <v>42669</v>
+        <v>42668</v>
       </c>
       <c r="F53" s="17">
-        <v>42680</v>
+        <v>42668</v>
       </c>
       <c r="G53" s="18">
         <v>0</v>
@@ -26806,43 +26827,21 @@
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24" t="s">
+      <c r="N53" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="P53" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q53" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="R53" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="S53" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T53" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="U53" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="V53" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="W53" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="X53" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y53" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z53" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
       <c r="AA53" s="24"/>
       <c r="AB53" s="24"/>
       <c r="AC53" s="24"/>
@@ -26928,22 +26927,25 @@
       <c r="DE53" s="24"/>
     </row>
     <row r="54" spans="1:109" ht="27" customHeight="1">
-      <c r="A54" s="15"/>
-      <c r="B54" s="57" t="s">
-        <v>53</v>
+      <c r="A54" s="15">
+        <f t="shared" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="16">
-        <f t="shared" si="19"/>
-        <v>6</v>
+        <f>F54-E54+1</f>
+        <v>1</v>
       </c>
       <c r="E54" s="17">
         <v>42669</v>
       </c>
       <c r="F54" s="17">
-        <v>42674</v>
+        <v>42669</v>
       </c>
       <c r="G54" s="18">
         <v>0</v>
@@ -26960,21 +26962,11 @@
       <c r="O54" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="P54" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q54" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="R54" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="S54" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T54" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
       <c r="U54" s="24"/>
       <c r="V54" s="24"/>
       <c r="W54" s="24"/>
@@ -27066,22 +27058,25 @@
       <c r="DE54" s="24"/>
     </row>
     <row r="55" spans="1:109" ht="27" customHeight="1">
-      <c r="A55" s="15"/>
-      <c r="B55" s="58" t="s">
-        <v>54</v>
+      <c r="A55" s="15">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>44</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="16">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f t="shared" si="15"/>
+        <v>12</v>
       </c>
       <c r="E55" s="17">
         <v>42669</v>
       </c>
       <c r="F55" s="17">
-        <v>42670</v>
+        <v>42680</v>
       </c>
       <c r="G55" s="18">
         <v>0</v>
@@ -27101,16 +27096,36 @@
       <c r="P55" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
-      <c r="T55" s="24"/>
-      <c r="U55" s="24"/>
-      <c r="V55" s="24"/>
-      <c r="W55" s="24"/>
-      <c r="X55" s="24"/>
-      <c r="Y55" s="24"/>
-      <c r="Z55" s="24"/>
+      <c r="Q55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="R55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="S55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="U55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="V55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="W55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="X55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z55" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="AA55" s="24"/>
       <c r="AB55" s="24"/>
       <c r="AC55" s="24"/>
@@ -27197,21 +27212,21 @@
     </row>
     <row r="56" spans="1:109" ht="27" customHeight="1">
       <c r="A56" s="15"/>
-      <c r="B56" s="58" t="s">
-        <v>55</v>
+      <c r="B56" s="56" t="s">
+        <v>51</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="16">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f t="shared" ref="D56:D64" si="19">F56-E56+1</f>
+        <v>12</v>
       </c>
       <c r="E56" s="17">
-        <v>42671</v>
+        <v>42669</v>
       </c>
       <c r="F56" s="17">
-        <v>42672</v>
+        <v>42680</v>
       </c>
       <c r="G56" s="18">
         <v>0</v>
@@ -27225,22 +27240,42 @@
       <c r="L56" s="24"/>
       <c r="M56" s="24"/>
       <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
+      <c r="O56" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P56" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="Q56" s="24" t="s">
         <v>39</v>
       </c>
       <c r="R56" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="24"/>
+      <c r="S56" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T56" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="U56" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="V56" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="W56" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="X56" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y56" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z56" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="AA56" s="24"/>
       <c r="AB56" s="24"/>
       <c r="AC56" s="24"/>
@@ -27327,18 +27362,18 @@
     </row>
     <row r="57" spans="1:109" ht="27" customHeight="1">
       <c r="A57" s="15"/>
-      <c r="B57" s="58" t="s">
-        <v>56</v>
+      <c r="B57" s="57" t="s">
+        <v>53</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="16">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E57" s="17">
-        <v>42673</v>
+        <v>42669</v>
       </c>
       <c r="F57" s="17">
         <v>42674</v>
@@ -27355,10 +27390,18 @@
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
       <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
+      <c r="O57" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P57" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q57" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="R57" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="S57" s="24" t="s">
         <v>39</v>
       </c>
@@ -27457,21 +27500,21 @@
     </row>
     <row r="58" spans="1:109" ht="27" customHeight="1">
       <c r="A58" s="15"/>
-      <c r="B58" s="57" t="s">
-        <v>52</v>
+      <c r="B58" s="58" t="s">
+        <v>54</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="16">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="17">
-        <v>42680</v>
+        <v>42669</v>
       </c>
       <c r="F58" s="17">
-        <v>42680</v>
+        <v>42670</v>
       </c>
       <c r="G58" s="18">
         <v>0</v>
@@ -27485,8 +27528,12 @@
       <c r="L58" s="24"/>
       <c r="M58" s="24"/>
       <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
+      <c r="O58" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P58" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="Q58" s="24"/>
       <c r="R58" s="24"/>
       <c r="S58" s="24"/>
@@ -27496,9 +27543,7 @@
       <c r="W58" s="24"/>
       <c r="X58" s="24"/>
       <c r="Y58" s="24"/>
-      <c r="Z58" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="Z58" s="24"/>
       <c r="AA58" s="24"/>
       <c r="AB58" s="24"/>
       <c r="AC58" s="24"/>
@@ -27586,20 +27631,20 @@
     <row r="59" spans="1:109" ht="27" customHeight="1">
       <c r="A59" s="15"/>
       <c r="B59" s="58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="16">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="17">
-        <v>42680</v>
+        <v>42671</v>
       </c>
       <c r="F59" s="17">
-        <v>42680</v>
+        <v>42672</v>
       </c>
       <c r="G59" s="18">
         <v>0</v>
@@ -27615,8 +27660,12 @@
       <c r="N59" s="24"/>
       <c r="O59" s="24"/>
       <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
+      <c r="Q59" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="R59" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="S59" s="24"/>
       <c r="T59" s="24"/>
       <c r="U59" s="24"/>
@@ -27624,9 +27673,7 @@
       <c r="W59" s="24"/>
       <c r="X59" s="24"/>
       <c r="Y59" s="24"/>
-      <c r="Z59" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="Z59" s="24"/>
       <c r="AA59" s="24"/>
       <c r="AB59" s="24"/>
       <c r="AC59" s="24"/>
@@ -27714,20 +27761,20 @@
     <row r="60" spans="1:109" ht="27" customHeight="1">
       <c r="A60" s="15"/>
       <c r="B60" s="58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D60" s="16">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="17">
-        <v>42680</v>
+        <v>42673</v>
       </c>
       <c r="F60" s="17">
-        <v>42680</v>
+        <v>42674</v>
       </c>
       <c r="G60" s="18">
         <v>0</v>
@@ -27745,16 +27792,18 @@
       <c r="P60" s="24"/>
       <c r="Q60" s="24"/>
       <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
+      <c r="S60" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T60" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="U60" s="24"/>
       <c r="V60" s="24"/>
       <c r="W60" s="24"/>
       <c r="X60" s="24"/>
       <c r="Y60" s="24"/>
-      <c r="Z60" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="Z60" s="24"/>
       <c r="AA60" s="24"/>
       <c r="AB60" s="24"/>
       <c r="AC60" s="24"/>
@@ -27841,8 +27890,8 @@
     </row>
     <row r="61" spans="1:109" ht="27" customHeight="1">
       <c r="A61" s="15"/>
-      <c r="B61" s="58" t="s">
-        <v>56</v>
+      <c r="B61" s="57" t="s">
+        <v>52</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>37</v>
@@ -27968,25 +28017,22 @@
       <c r="DE61" s="24"/>
     </row>
     <row r="62" spans="1:109" ht="27" customHeight="1">
-      <c r="A62" s="15">
-        <f t="shared" si="9"/>
-        <v>53</v>
-      </c>
-      <c r="B62" s="55" t="s">
-        <v>28</v>
+      <c r="A62" s="15"/>
+      <c r="B62" s="58" t="s">
+        <v>54</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D62" s="16">
-        <f t="shared" si="15"/>
-        <v>7</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="E62" s="17">
-        <v>42667</v>
+        <v>42680</v>
       </c>
       <c r="F62" s="17">
-        <v>42673</v>
+        <v>42680</v>
       </c>
       <c r="G62" s="18">
         <v>0</v>
@@ -27998,34 +28044,22 @@
       <c r="J62" s="24"/>
       <c r="K62" s="24"/>
       <c r="L62" s="24"/>
-      <c r="M62" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="N62" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="O62" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="P62" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q62" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="R62" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="S62" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
       <c r="T62" s="24"/>
       <c r="U62" s="24"/>
       <c r="V62" s="24"/>
       <c r="W62" s="24"/>
       <c r="X62" s="24"/>
       <c r="Y62" s="24"/>
-      <c r="Z62" s="24"/>
+      <c r="Z62" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="AA62" s="24"/>
       <c r="AB62" s="24"/>
       <c r="AC62" s="24"/>
@@ -28111,25 +28145,22 @@
       <c r="DE62" s="24"/>
     </row>
     <row r="63" spans="1:109" ht="27" customHeight="1">
-      <c r="A63" s="15">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
-      <c r="B63" s="56" t="s">
-        <v>29</v>
+      <c r="A63" s="15"/>
+      <c r="B63" s="58" t="s">
+        <v>55</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E63" s="17">
-        <v>42667</v>
+        <v>42680</v>
       </c>
       <c r="F63" s="17">
-        <v>42667</v>
+        <v>42680</v>
       </c>
       <c r="G63" s="18">
         <v>0</v>
@@ -28141,9 +28172,7 @@
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
       <c r="L63" s="24"/>
-      <c r="M63" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="M63" s="24"/>
       <c r="N63" s="24"/>
       <c r="O63" s="24"/>
       <c r="P63" s="24"/>
@@ -28156,7 +28185,9 @@
       <c r="W63" s="24"/>
       <c r="X63" s="24"/>
       <c r="Y63" s="24"/>
-      <c r="Z63" s="24"/>
+      <c r="Z63" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="AA63" s="24"/>
       <c r="AB63" s="24"/>
       <c r="AC63" s="24"/>
@@ -28242,25 +28273,22 @@
       <c r="DE63" s="24"/>
     </row>
     <row r="64" spans="1:109" ht="27" customHeight="1">
-      <c r="A64" s="15">
-        <f t="shared" si="9"/>
-        <v>55</v>
-      </c>
-      <c r="B64" s="56" t="s">
-        <v>30</v>
+      <c r="A64" s="15"/>
+      <c r="B64" s="58" t="s">
+        <v>56</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D64" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="E64" s="17">
-        <v>42668</v>
+        <v>42680</v>
       </c>
       <c r="F64" s="17">
-        <v>42668</v>
+        <v>42680</v>
       </c>
       <c r="G64" s="18">
         <v>0</v>
@@ -28273,9 +28301,7 @@
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
-      <c r="N64" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="N64" s="24"/>
       <c r="O64" s="24"/>
       <c r="P64" s="24"/>
       <c r="Q64" s="24"/>
@@ -28287,7 +28313,9 @@
       <c r="W64" s="24"/>
       <c r="X64" s="24"/>
       <c r="Y64" s="24"/>
-      <c r="Z64" s="24"/>
+      <c r="Z64" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="AA64" s="24"/>
       <c r="AB64" s="24"/>
       <c r="AC64" s="24"/>
@@ -28377,21 +28405,21 @@
         <f t="shared" si="9"/>
         <v>56</v>
       </c>
-      <c r="B65" s="56" t="s">
-        <v>31</v>
+      <c r="B65" s="55" t="s">
+        <v>28</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D65" s="16">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="E65" s="17">
-        <v>42669</v>
+        <v>42673</v>
       </c>
       <c r="F65" s="17">
-        <v>42669</v>
+        <v>42673</v>
       </c>
       <c r="G65" s="18">
         <v>0</v>
@@ -28403,15 +28431,27 @@
       <c r="J65" s="24"/>
       <c r="K65" s="24"/>
       <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
+      <c r="M65" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N65" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="O65" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="24"/>
+      <c r="P65" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q65" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="R65" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="S65" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="T65" s="24"/>
       <c r="U65" s="24"/>
       <c r="V65" s="24"/>
@@ -28509,20 +28549,20 @@
         <v>57</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D66" s="16">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="E66" s="17">
-        <v>42670</v>
+        <v>42673</v>
       </c>
       <c r="F66" s="17">
-        <v>42670</v>
+        <v>42673</v>
       </c>
       <c r="G66" s="18">
         <v>0</v>
@@ -28534,12 +28574,12 @@
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
+      <c r="M66" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="N66" s="24"/>
       <c r="O66" s="24"/>
-      <c r="P66" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="P66" s="24"/>
       <c r="Q66" s="24"/>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
@@ -28640,20 +28680,20 @@
         <v>58</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D67" s="16">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="E67" s="17">
-        <v>42671</v>
+        <v>42674</v>
       </c>
       <c r="F67" s="17">
-        <v>42671</v>
+        <v>42674</v>
       </c>
       <c r="G67" s="18">
         <v>0</v>
@@ -28666,12 +28706,12 @@
       <c r="K67" s="24"/>
       <c r="L67" s="24"/>
       <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
+      <c r="N67" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="O67" s="24"/>
       <c r="P67" s="24"/>
-      <c r="Q67" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q67" s="24"/>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
       <c r="T67" s="24"/>
@@ -28771,20 +28811,20 @@
         <v>59</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D68" s="16">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="E68" s="17">
-        <v>42672</v>
+        <v>42675</v>
       </c>
       <c r="F68" s="17">
-        <v>42672</v>
+        <v>42675</v>
       </c>
       <c r="G68" s="18">
         <v>0</v>
@@ -28798,12 +28838,12 @@
       <c r="L68" s="24"/>
       <c r="M68" s="24"/>
       <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
+      <c r="O68" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="P68" s="24"/>
       <c r="Q68" s="24"/>
-      <c r="R68" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="R68" s="24"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="24"/>
@@ -28898,24 +28938,24 @@
     </row>
     <row r="69" spans="1:109" ht="27" customHeight="1">
       <c r="A69" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D69" s="16">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="E69" s="17">
-        <v>42673</v>
+        <v>42676</v>
       </c>
       <c r="F69" s="17">
-        <v>42673</v>
+        <v>42676</v>
       </c>
       <c r="G69" s="18">
         <v>0</v>
@@ -28930,12 +28970,12 @@
       <c r="M69" s="24"/>
       <c r="N69" s="24"/>
       <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
+      <c r="P69" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="Q69" s="24"/>
       <c r="R69" s="24"/>
-      <c r="S69" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="S69" s="24"/>
       <c r="T69" s="24"/>
       <c r="U69" s="24"/>
       <c r="V69" s="24"/>
@@ -29029,16 +29069,31 @@
     </row>
     <row r="70" spans="1:109" ht="27" customHeight="1">
       <c r="A70" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="19"/>
+      <c r="B70" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="16">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E70" s="17">
+        <v>42677</v>
+      </c>
+      <c r="F70" s="17">
+        <v>42677</v>
+      </c>
+      <c r="G70" s="18">
+        <v>0</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="I70" s="23"/>
       <c r="J70" s="24"/>
       <c r="K70" s="24"/>
@@ -29047,30 +29102,18 @@
       <c r="N70" s="24"/>
       <c r="O70" s="24"/>
       <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
+      <c r="Q70" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="R70" s="24"/>
       <c r="S70" s="24"/>
-      <c r="T70" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="U70" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="V70" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="W70" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="X70" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y70" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z70" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="24"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
       <c r="AA70" s="24"/>
       <c r="AB70" s="24"/>
       <c r="AC70" s="24"/>
@@ -29157,16 +29200,31 @@
     </row>
     <row r="71" spans="1:109" ht="27" customHeight="1">
       <c r="A71" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="19"/>
+      <c r="B71" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="16">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="17">
+        <v>42678</v>
+      </c>
+      <c r="F71" s="17">
+        <v>42678</v>
+      </c>
+      <c r="G71" s="18">
+        <v>0</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="I71" s="23"/>
       <c r="J71" s="24"/>
       <c r="K71" s="24"/>
@@ -29176,11 +29234,11 @@
       <c r="O71" s="24"/>
       <c r="P71" s="24"/>
       <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
+      <c r="R71" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="S71" s="24"/>
-      <c r="T71" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="T71" s="24"/>
       <c r="U71" s="24"/>
       <c r="V71" s="24"/>
       <c r="W71" s="24"/>
@@ -29276,13 +29334,28 @@
         <f t="shared" si="18"/>
         <v>63</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="19"/>
+      <c r="B72" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="16">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E72" s="17">
+        <v>42679</v>
+      </c>
+      <c r="F72" s="17">
+        <v>42679</v>
+      </c>
+      <c r="G72" s="18">
+        <v>0</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="I72" s="23"/>
       <c r="J72" s="24"/>
       <c r="K72" s="24"/>
@@ -29293,11 +29366,11 @@
       <c r="P72" s="24"/>
       <c r="Q72" s="24"/>
       <c r="R72" s="24"/>
-      <c r="S72" s="24"/>
+      <c r="S72" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="T72" s="24"/>
-      <c r="U72" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="U72" s="24"/>
       <c r="V72" s="24"/>
       <c r="W72" s="24"/>
       <c r="X72" s="24"/>
@@ -29410,15 +29483,27 @@
       <c r="Q73" s="24"/>
       <c r="R73" s="24"/>
       <c r="S73" s="24"/>
-      <c r="T73" s="24"/>
-      <c r="U73" s="24"/>
+      <c r="T73" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="U73" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="V73" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="W73" s="24"/>
-      <c r="X73" s="24"/>
-      <c r="Y73" s="24"/>
-      <c r="Z73" s="24"/>
+      <c r="W73" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="X73" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y73" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z73" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="AA73" s="24"/>
       <c r="AB73" s="24"/>
       <c r="AC73" s="24"/>
@@ -29526,12 +29611,12 @@
       <c r="Q74" s="24"/>
       <c r="R74" s="24"/>
       <c r="S74" s="24"/>
-      <c r="T74" s="24"/>
+      <c r="T74" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="U74" s="24"/>
       <c r="V74" s="24"/>
-      <c r="W74" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="W74" s="24"/>
       <c r="X74" s="24"/>
       <c r="Y74" s="24"/>
       <c r="Z74" s="24"/>
@@ -29643,12 +29728,12 @@
       <c r="R75" s="24"/>
       <c r="S75" s="24"/>
       <c r="T75" s="24"/>
-      <c r="U75" s="24"/>
+      <c r="U75" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="V75" s="24"/>
       <c r="W75" s="24"/>
-      <c r="X75" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="X75" s="24"/>
       <c r="Y75" s="24"/>
       <c r="Z75" s="24"/>
       <c r="AA75" s="24"/>
@@ -29760,12 +29845,12 @@
       <c r="S76" s="24"/>
       <c r="T76" s="24"/>
       <c r="U76" s="24"/>
-      <c r="V76" s="24"/>
+      <c r="V76" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="W76" s="24"/>
       <c r="X76" s="24"/>
-      <c r="Y76" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="Y76" s="24"/>
       <c r="Z76" s="24"/>
       <c r="AA76" s="24"/>
       <c r="AB76" s="24"/>
@@ -29877,12 +29962,12 @@
       <c r="T77" s="24"/>
       <c r="U77" s="24"/>
       <c r="V77" s="24"/>
-      <c r="W77" s="24"/>
+      <c r="W77" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="X77" s="24"/>
       <c r="Y77" s="24"/>
-      <c r="Z77" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="Z77" s="24"/>
       <c r="AA77" s="24"/>
       <c r="AB77" s="24"/>
       <c r="AC77" s="24"/>
@@ -29994,7 +30079,9 @@
       <c r="U78" s="24"/>
       <c r="V78" s="24"/>
       <c r="W78" s="24"/>
-      <c r="X78" s="24"/>
+      <c r="X78" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="Y78" s="24"/>
       <c r="Z78" s="24"/>
       <c r="AA78" s="24"/>
@@ -30086,7 +30173,7 @@
         <f t="shared" si="18"/>
         <v>70</v>
       </c>
-      <c r="B79" s="22"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="15"/>
       <c r="D79" s="16"/>
       <c r="E79" s="17"/>
@@ -30109,7 +30196,9 @@
       <c r="V79" s="24"/>
       <c r="W79" s="24"/>
       <c r="X79" s="24"/>
-      <c r="Y79" s="24"/>
+      <c r="Y79" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="Z79" s="24"/>
       <c r="AA79" s="24"/>
       <c r="AB79" s="24"/>
@@ -30224,7 +30313,9 @@
       <c r="W80" s="24"/>
       <c r="X80" s="24"/>
       <c r="Y80" s="24"/>
-      <c r="Z80" s="24"/>
+      <c r="Z80" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="AA80" s="24"/>
       <c r="AB80" s="24"/>
       <c r="AC80" s="24"/>
@@ -32135,7 +32226,7 @@
     </row>
     <row r="97" spans="1:109" ht="27" customHeight="1">
       <c r="A97" s="15">
-        <f t="shared" ref="A97:A132" si="20">ROW()-ROW(№列)</f>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="B97" s="22"/>
@@ -32249,7 +32340,7 @@
     </row>
     <row r="98" spans="1:109" ht="27" customHeight="1">
       <c r="A98" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>89</v>
       </c>
       <c r="B98" s="22"/>
@@ -32363,7 +32454,7 @@
     </row>
     <row r="99" spans="1:109" ht="27" customHeight="1">
       <c r="A99" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="B99" s="22"/>
@@ -32477,7 +32568,7 @@
     </row>
     <row r="100" spans="1:109" ht="27" customHeight="1">
       <c r="A100" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="A100:A135" si="20">ROW()-ROW(№列)</f>
         <v>91</v>
       </c>
       <c r="B100" s="22"/>
@@ -36124,121 +36215,463 @@
       <c r="DE131" s="24"/>
     </row>
     <row r="132" spans="1:109" ht="27" customHeight="1">
-      <c r="A132" s="25">
+      <c r="A132" s="15">
         <f t="shared" si="20"/>
         <v>123</v>
       </c>
-      <c r="B132" s="26"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="51"/>
-      <c r="E132" s="52"/>
-      <c r="F132" s="52"/>
-      <c r="G132" s="53"/>
-      <c r="H132" s="54"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="28"/>
-      <c r="K132" s="28"/>
-      <c r="L132" s="28"/>
-      <c r="M132" s="28"/>
-      <c r="N132" s="28"/>
-      <c r="O132" s="28"/>
-      <c r="P132" s="28"/>
-      <c r="Q132" s="28"/>
-      <c r="R132" s="28"/>
-      <c r="S132" s="28"/>
-      <c r="T132" s="28"/>
-      <c r="U132" s="28"/>
-      <c r="V132" s="28"/>
-      <c r="W132" s="28"/>
-      <c r="X132" s="28"/>
-      <c r="Y132" s="28"/>
-      <c r="Z132" s="28"/>
-      <c r="AA132" s="28"/>
-      <c r="AB132" s="28"/>
-      <c r="AC132" s="28"/>
-      <c r="AD132" s="28"/>
-      <c r="AE132" s="28"/>
-      <c r="AF132" s="28"/>
-      <c r="AG132" s="28"/>
-      <c r="AH132" s="28"/>
-      <c r="AI132" s="28"/>
-      <c r="AJ132" s="28"/>
-      <c r="AK132" s="28"/>
-      <c r="AL132" s="28"/>
-      <c r="AM132" s="28"/>
-      <c r="AN132" s="28"/>
-      <c r="AO132" s="28"/>
-      <c r="AP132" s="28"/>
-      <c r="AQ132" s="28"/>
-      <c r="AR132" s="28"/>
-      <c r="AS132" s="28"/>
-      <c r="AT132" s="28"/>
-      <c r="AU132" s="28"/>
-      <c r="AV132" s="28"/>
-      <c r="AW132" s="28"/>
-      <c r="AX132" s="28"/>
-      <c r="AY132" s="28"/>
-      <c r="AZ132" s="28"/>
-      <c r="BA132" s="28"/>
-      <c r="BB132" s="28"/>
-      <c r="BC132" s="28"/>
-      <c r="BD132" s="28"/>
-      <c r="BE132" s="28"/>
-      <c r="BF132" s="28"/>
-      <c r="BG132" s="28"/>
-      <c r="BH132" s="28"/>
-      <c r="BI132" s="28"/>
-      <c r="BJ132" s="28"/>
-      <c r="BK132" s="28"/>
-      <c r="BL132" s="28"/>
-      <c r="BM132" s="28"/>
-      <c r="BN132" s="28"/>
-      <c r="BO132" s="28"/>
-      <c r="BP132" s="28"/>
-      <c r="BQ132" s="28"/>
-      <c r="BR132" s="28"/>
-      <c r="BS132" s="28"/>
-      <c r="BT132" s="28"/>
-      <c r="BU132" s="28"/>
-      <c r="BV132" s="28"/>
-      <c r="BW132" s="28"/>
-      <c r="BX132" s="28"/>
-      <c r="BY132" s="28"/>
-      <c r="BZ132" s="28"/>
-      <c r="CA132" s="28"/>
-      <c r="CB132" s="28"/>
-      <c r="CC132" s="28"/>
-      <c r="CD132" s="28"/>
-      <c r="CE132" s="28"/>
-      <c r="CF132" s="28"/>
-      <c r="CG132" s="28"/>
-      <c r="CH132" s="28"/>
-      <c r="CI132" s="28"/>
-      <c r="CJ132" s="28"/>
-      <c r="CK132" s="28"/>
-      <c r="CL132" s="28"/>
-      <c r="CM132" s="28"/>
-      <c r="CN132" s="28"/>
-      <c r="CO132" s="28"/>
-      <c r="CP132" s="28"/>
-      <c r="CQ132" s="28"/>
-      <c r="CR132" s="28"/>
-      <c r="CS132" s="28"/>
-      <c r="CT132" s="28"/>
-      <c r="CU132" s="28"/>
-      <c r="CV132" s="28"/>
-      <c r="CW132" s="28"/>
-      <c r="CX132" s="28"/>
-      <c r="CY132" s="28"/>
-      <c r="CZ132" s="28"/>
-      <c r="DA132" s="28"/>
-      <c r="DB132" s="28"/>
-      <c r="DC132" s="28"/>
-      <c r="DD132" s="28"/>
-      <c r="DE132" s="28"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="23"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="24"/>
+      <c r="L132" s="24"/>
+      <c r="M132" s="24"/>
+      <c r="N132" s="24"/>
+      <c r="O132" s="24"/>
+      <c r="P132" s="24"/>
+      <c r="Q132" s="24"/>
+      <c r="R132" s="24"/>
+      <c r="S132" s="24"/>
+      <c r="T132" s="24"/>
+      <c r="U132" s="24"/>
+      <c r="V132" s="24"/>
+      <c r="W132" s="24"/>
+      <c r="X132" s="24"/>
+      <c r="Y132" s="24"/>
+      <c r="Z132" s="24"/>
+      <c r="AA132" s="24"/>
+      <c r="AB132" s="24"/>
+      <c r="AC132" s="24"/>
+      <c r="AD132" s="24"/>
+      <c r="AE132" s="24"/>
+      <c r="AF132" s="24"/>
+      <c r="AG132" s="24"/>
+      <c r="AH132" s="24"/>
+      <c r="AI132" s="24"/>
+      <c r="AJ132" s="24"/>
+      <c r="AK132" s="24"/>
+      <c r="AL132" s="24"/>
+      <c r="AM132" s="24"/>
+      <c r="AN132" s="24"/>
+      <c r="AO132" s="24"/>
+      <c r="AP132" s="24"/>
+      <c r="AQ132" s="24"/>
+      <c r="AR132" s="24"/>
+      <c r="AS132" s="24"/>
+      <c r="AT132" s="24"/>
+      <c r="AU132" s="24"/>
+      <c r="AV132" s="24"/>
+      <c r="AW132" s="24"/>
+      <c r="AX132" s="24"/>
+      <c r="AY132" s="24"/>
+      <c r="AZ132" s="24"/>
+      <c r="BA132" s="24"/>
+      <c r="BB132" s="24"/>
+      <c r="BC132" s="24"/>
+      <c r="BD132" s="24"/>
+      <c r="BE132" s="24"/>
+      <c r="BF132" s="24"/>
+      <c r="BG132" s="24"/>
+      <c r="BH132" s="24"/>
+      <c r="BI132" s="24"/>
+      <c r="BJ132" s="24"/>
+      <c r="BK132" s="24"/>
+      <c r="BL132" s="24"/>
+      <c r="BM132" s="24"/>
+      <c r="BN132" s="24"/>
+      <c r="BO132" s="24"/>
+      <c r="BP132" s="24"/>
+      <c r="BQ132" s="24"/>
+      <c r="BR132" s="24"/>
+      <c r="BS132" s="24"/>
+      <c r="BT132" s="24"/>
+      <c r="BU132" s="24"/>
+      <c r="BV132" s="24"/>
+      <c r="BW132" s="24"/>
+      <c r="BX132" s="24"/>
+      <c r="BY132" s="24"/>
+      <c r="BZ132" s="24"/>
+      <c r="CA132" s="24"/>
+      <c r="CB132" s="24"/>
+      <c r="CC132" s="24"/>
+      <c r="CD132" s="24"/>
+      <c r="CE132" s="24"/>
+      <c r="CF132" s="24"/>
+      <c r="CG132" s="24"/>
+      <c r="CH132" s="24"/>
+      <c r="CI132" s="24"/>
+      <c r="CJ132" s="24"/>
+      <c r="CK132" s="24"/>
+      <c r="CL132" s="24"/>
+      <c r="CM132" s="24"/>
+      <c r="CN132" s="24"/>
+      <c r="CO132" s="24"/>
+      <c r="CP132" s="24"/>
+      <c r="CQ132" s="24"/>
+      <c r="CR132" s="24"/>
+      <c r="CS132" s="24"/>
+      <c r="CT132" s="24"/>
+      <c r="CU132" s="24"/>
+      <c r="CV132" s="24"/>
+      <c r="CW132" s="24"/>
+      <c r="CX132" s="24"/>
+      <c r="CY132" s="24"/>
+      <c r="CZ132" s="24"/>
+      <c r="DA132" s="24"/>
+      <c r="DB132" s="24"/>
+      <c r="DC132" s="24"/>
+      <c r="DD132" s="24"/>
+      <c r="DE132" s="24"/>
+    </row>
+    <row r="133" spans="1:109" ht="27" customHeight="1">
+      <c r="A133" s="15">
+        <f t="shared" si="20"/>
+        <v>124</v>
+      </c>
+      <c r="B133" s="22"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="23"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="24"/>
+      <c r="L133" s="24"/>
+      <c r="M133" s="24"/>
+      <c r="N133" s="24"/>
+      <c r="O133" s="24"/>
+      <c r="P133" s="24"/>
+      <c r="Q133" s="24"/>
+      <c r="R133" s="24"/>
+      <c r="S133" s="24"/>
+      <c r="T133" s="24"/>
+      <c r="U133" s="24"/>
+      <c r="V133" s="24"/>
+      <c r="W133" s="24"/>
+      <c r="X133" s="24"/>
+      <c r="Y133" s="24"/>
+      <c r="Z133" s="24"/>
+      <c r="AA133" s="24"/>
+      <c r="AB133" s="24"/>
+      <c r="AC133" s="24"/>
+      <c r="AD133" s="24"/>
+      <c r="AE133" s="24"/>
+      <c r="AF133" s="24"/>
+      <c r="AG133" s="24"/>
+      <c r="AH133" s="24"/>
+      <c r="AI133" s="24"/>
+      <c r="AJ133" s="24"/>
+      <c r="AK133" s="24"/>
+      <c r="AL133" s="24"/>
+      <c r="AM133" s="24"/>
+      <c r="AN133" s="24"/>
+      <c r="AO133" s="24"/>
+      <c r="AP133" s="24"/>
+      <c r="AQ133" s="24"/>
+      <c r="AR133" s="24"/>
+      <c r="AS133" s="24"/>
+      <c r="AT133" s="24"/>
+      <c r="AU133" s="24"/>
+      <c r="AV133" s="24"/>
+      <c r="AW133" s="24"/>
+      <c r="AX133" s="24"/>
+      <c r="AY133" s="24"/>
+      <c r="AZ133" s="24"/>
+      <c r="BA133" s="24"/>
+      <c r="BB133" s="24"/>
+      <c r="BC133" s="24"/>
+      <c r="BD133" s="24"/>
+      <c r="BE133" s="24"/>
+      <c r="BF133" s="24"/>
+      <c r="BG133" s="24"/>
+      <c r="BH133" s="24"/>
+      <c r="BI133" s="24"/>
+      <c r="BJ133" s="24"/>
+      <c r="BK133" s="24"/>
+      <c r="BL133" s="24"/>
+      <c r="BM133" s="24"/>
+      <c r="BN133" s="24"/>
+      <c r="BO133" s="24"/>
+      <c r="BP133" s="24"/>
+      <c r="BQ133" s="24"/>
+      <c r="BR133" s="24"/>
+      <c r="BS133" s="24"/>
+      <c r="BT133" s="24"/>
+      <c r="BU133" s="24"/>
+      <c r="BV133" s="24"/>
+      <c r="BW133" s="24"/>
+      <c r="BX133" s="24"/>
+      <c r="BY133" s="24"/>
+      <c r="BZ133" s="24"/>
+      <c r="CA133" s="24"/>
+      <c r="CB133" s="24"/>
+      <c r="CC133" s="24"/>
+      <c r="CD133" s="24"/>
+      <c r="CE133" s="24"/>
+      <c r="CF133" s="24"/>
+      <c r="CG133" s="24"/>
+      <c r="CH133" s="24"/>
+      <c r="CI133" s="24"/>
+      <c r="CJ133" s="24"/>
+      <c r="CK133" s="24"/>
+      <c r="CL133" s="24"/>
+      <c r="CM133" s="24"/>
+      <c r="CN133" s="24"/>
+      <c r="CO133" s="24"/>
+      <c r="CP133" s="24"/>
+      <c r="CQ133" s="24"/>
+      <c r="CR133" s="24"/>
+      <c r="CS133" s="24"/>
+      <c r="CT133" s="24"/>
+      <c r="CU133" s="24"/>
+      <c r="CV133" s="24"/>
+      <c r="CW133" s="24"/>
+      <c r="CX133" s="24"/>
+      <c r="CY133" s="24"/>
+      <c r="CZ133" s="24"/>
+      <c r="DA133" s="24"/>
+      <c r="DB133" s="24"/>
+      <c r="DC133" s="24"/>
+      <c r="DD133" s="24"/>
+      <c r="DE133" s="24"/>
+    </row>
+    <row r="134" spans="1:109" ht="27" customHeight="1">
+      <c r="A134" s="15">
+        <f t="shared" si="20"/>
+        <v>125</v>
+      </c>
+      <c r="B134" s="22"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="23"/>
+      <c r="J134" s="24"/>
+      <c r="K134" s="24"/>
+      <c r="L134" s="24"/>
+      <c r="M134" s="24"/>
+      <c r="N134" s="24"/>
+      <c r="O134" s="24"/>
+      <c r="P134" s="24"/>
+      <c r="Q134" s="24"/>
+      <c r="R134" s="24"/>
+      <c r="S134" s="24"/>
+      <c r="T134" s="24"/>
+      <c r="U134" s="24"/>
+      <c r="V134" s="24"/>
+      <c r="W134" s="24"/>
+      <c r="X134" s="24"/>
+      <c r="Y134" s="24"/>
+      <c r="Z134" s="24"/>
+      <c r="AA134" s="24"/>
+      <c r="AB134" s="24"/>
+      <c r="AC134" s="24"/>
+      <c r="AD134" s="24"/>
+      <c r="AE134" s="24"/>
+      <c r="AF134" s="24"/>
+      <c r="AG134" s="24"/>
+      <c r="AH134" s="24"/>
+      <c r="AI134" s="24"/>
+      <c r="AJ134" s="24"/>
+      <c r="AK134" s="24"/>
+      <c r="AL134" s="24"/>
+      <c r="AM134" s="24"/>
+      <c r="AN134" s="24"/>
+      <c r="AO134" s="24"/>
+      <c r="AP134" s="24"/>
+      <c r="AQ134" s="24"/>
+      <c r="AR134" s="24"/>
+      <c r="AS134" s="24"/>
+      <c r="AT134" s="24"/>
+      <c r="AU134" s="24"/>
+      <c r="AV134" s="24"/>
+      <c r="AW134" s="24"/>
+      <c r="AX134" s="24"/>
+      <c r="AY134" s="24"/>
+      <c r="AZ134" s="24"/>
+      <c r="BA134" s="24"/>
+      <c r="BB134" s="24"/>
+      <c r="BC134" s="24"/>
+      <c r="BD134" s="24"/>
+      <c r="BE134" s="24"/>
+      <c r="BF134" s="24"/>
+      <c r="BG134" s="24"/>
+      <c r="BH134" s="24"/>
+      <c r="BI134" s="24"/>
+      <c r="BJ134" s="24"/>
+      <c r="BK134" s="24"/>
+      <c r="BL134" s="24"/>
+      <c r="BM134" s="24"/>
+      <c r="BN134" s="24"/>
+      <c r="BO134" s="24"/>
+      <c r="BP134" s="24"/>
+      <c r="BQ134" s="24"/>
+      <c r="BR134" s="24"/>
+      <c r="BS134" s="24"/>
+      <c r="BT134" s="24"/>
+      <c r="BU134" s="24"/>
+      <c r="BV134" s="24"/>
+      <c r="BW134" s="24"/>
+      <c r="BX134" s="24"/>
+      <c r="BY134" s="24"/>
+      <c r="BZ134" s="24"/>
+      <c r="CA134" s="24"/>
+      <c r="CB134" s="24"/>
+      <c r="CC134" s="24"/>
+      <c r="CD134" s="24"/>
+      <c r="CE134" s="24"/>
+      <c r="CF134" s="24"/>
+      <c r="CG134" s="24"/>
+      <c r="CH134" s="24"/>
+      <c r="CI134" s="24"/>
+      <c r="CJ134" s="24"/>
+      <c r="CK134" s="24"/>
+      <c r="CL134" s="24"/>
+      <c r="CM134" s="24"/>
+      <c r="CN134" s="24"/>
+      <c r="CO134" s="24"/>
+      <c r="CP134" s="24"/>
+      <c r="CQ134" s="24"/>
+      <c r="CR134" s="24"/>
+      <c r="CS134" s="24"/>
+      <c r="CT134" s="24"/>
+      <c r="CU134" s="24"/>
+      <c r="CV134" s="24"/>
+      <c r="CW134" s="24"/>
+      <c r="CX134" s="24"/>
+      <c r="CY134" s="24"/>
+      <c r="CZ134" s="24"/>
+      <c r="DA134" s="24"/>
+      <c r="DB134" s="24"/>
+      <c r="DC134" s="24"/>
+      <c r="DD134" s="24"/>
+      <c r="DE134" s="24"/>
+    </row>
+    <row r="135" spans="1:109" ht="27" customHeight="1">
+      <c r="A135" s="25">
+        <f t="shared" si="20"/>
+        <v>126</v>
+      </c>
+      <c r="B135" s="26"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="51"/>
+      <c r="E135" s="52"/>
+      <c r="F135" s="52"/>
+      <c r="G135" s="53"/>
+      <c r="H135" s="54"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="28"/>
+      <c r="L135" s="28"/>
+      <c r="M135" s="28"/>
+      <c r="N135" s="28"/>
+      <c r="O135" s="28"/>
+      <c r="P135" s="28"/>
+      <c r="Q135" s="28"/>
+      <c r="R135" s="28"/>
+      <c r="S135" s="28"/>
+      <c r="T135" s="28"/>
+      <c r="U135" s="28"/>
+      <c r="V135" s="28"/>
+      <c r="W135" s="28"/>
+      <c r="X135" s="28"/>
+      <c r="Y135" s="28"/>
+      <c r="Z135" s="28"/>
+      <c r="AA135" s="28"/>
+      <c r="AB135" s="28"/>
+      <c r="AC135" s="28"/>
+      <c r="AD135" s="28"/>
+      <c r="AE135" s="28"/>
+      <c r="AF135" s="28"/>
+      <c r="AG135" s="28"/>
+      <c r="AH135" s="28"/>
+      <c r="AI135" s="28"/>
+      <c r="AJ135" s="28"/>
+      <c r="AK135" s="28"/>
+      <c r="AL135" s="28"/>
+      <c r="AM135" s="28"/>
+      <c r="AN135" s="28"/>
+      <c r="AO135" s="28"/>
+      <c r="AP135" s="28"/>
+      <c r="AQ135" s="28"/>
+      <c r="AR135" s="28"/>
+      <c r="AS135" s="28"/>
+      <c r="AT135" s="28"/>
+      <c r="AU135" s="28"/>
+      <c r="AV135" s="28"/>
+      <c r="AW135" s="28"/>
+      <c r="AX135" s="28"/>
+      <c r="AY135" s="28"/>
+      <c r="AZ135" s="28"/>
+      <c r="BA135" s="28"/>
+      <c r="BB135" s="28"/>
+      <c r="BC135" s="28"/>
+      <c r="BD135" s="28"/>
+      <c r="BE135" s="28"/>
+      <c r="BF135" s="28"/>
+      <c r="BG135" s="28"/>
+      <c r="BH135" s="28"/>
+      <c r="BI135" s="28"/>
+      <c r="BJ135" s="28"/>
+      <c r="BK135" s="28"/>
+      <c r="BL135" s="28"/>
+      <c r="BM135" s="28"/>
+      <c r="BN135" s="28"/>
+      <c r="BO135" s="28"/>
+      <c r="BP135" s="28"/>
+      <c r="BQ135" s="28"/>
+      <c r="BR135" s="28"/>
+      <c r="BS135" s="28"/>
+      <c r="BT135" s="28"/>
+      <c r="BU135" s="28"/>
+      <c r="BV135" s="28"/>
+      <c r="BW135" s="28"/>
+      <c r="BX135" s="28"/>
+      <c r="BY135" s="28"/>
+      <c r="BZ135" s="28"/>
+      <c r="CA135" s="28"/>
+      <c r="CB135" s="28"/>
+      <c r="CC135" s="28"/>
+      <c r="CD135" s="28"/>
+      <c r="CE135" s="28"/>
+      <c r="CF135" s="28"/>
+      <c r="CG135" s="28"/>
+      <c r="CH135" s="28"/>
+      <c r="CI135" s="28"/>
+      <c r="CJ135" s="28"/>
+      <c r="CK135" s="28"/>
+      <c r="CL135" s="28"/>
+      <c r="CM135" s="28"/>
+      <c r="CN135" s="28"/>
+      <c r="CO135" s="28"/>
+      <c r="CP135" s="28"/>
+      <c r="CQ135" s="28"/>
+      <c r="CR135" s="28"/>
+      <c r="CS135" s="28"/>
+      <c r="CT135" s="28"/>
+      <c r="CU135" s="28"/>
+      <c r="CV135" s="28"/>
+      <c r="CW135" s="28"/>
+      <c r="CX135" s="28"/>
+      <c r="CY135" s="28"/>
+      <c r="CZ135" s="28"/>
+      <c r="DA135" s="28"/>
+      <c r="DB135" s="28"/>
+      <c r="DC135" s="28"/>
+      <c r="DD135" s="28"/>
+      <c r="DE135" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:DE132"/>
+  <autoFilter ref="A9:DE135"/>
   <dataConsolidate/>
   <mergeCells count="10">
     <mergeCell ref="H3:H4"/>
@@ -36253,2075 +36686,2075 @@
     <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="A5:H8 A10:H11 A66:B69 A27:A28 A12:D26 G12:H26 E12:F12 A32:A34 E36:H42 A36:D47 E20:F26 B62:D69 A62:A65 H53:H58 A53:B58 E62:F62 H62 G53:G62 C54:F57 C53:E53 C58:D61 G47:H47 G52:H52 A52:E52 A78:H132 A48:H51 E63:H69 E44:H46 E43 G43:H43 H70:H77 A70:A77 B76:G78">
-    <cfRule type="expression" dxfId="537" priority="879" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:H8 A10:H11 A69:B72 A27:A28 A12:D26 G12:H26 E12:F12 A32:A34 E36:H42 A36:D47 E20:F26 A65:A68 H56:H61 A56:B61 H65 G56:G65 C57:F60 C56:E56 C61:D64 G47:H47 G55:H55 A55:E55 A81:H135 E44:H46 E43 G43:H43 H73:H80 A73:A80 B79:G81 G66:H72 A48:H54 B65:F72">
+    <cfRule type="expression" dxfId="538" priority="879" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J4 I4">
-    <cfRule type="expression" dxfId="536" priority="880" stopIfTrue="1">
+    <cfRule type="expression" dxfId="537" priority="880" stopIfTrue="1">
       <formula>ISBLANK(I$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="881" stopIfTrue="1">
+    <cfRule type="expression" dxfId="536" priority="881" stopIfTrue="1">
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J8 I10:J11 I12:DE28 I32:DE34 I62:DE132 I36:DE58">
-    <cfRule type="expression" dxfId="534" priority="882" stopIfTrue="1">
+  <conditionalFormatting sqref="I5:J8 I10:J11 I12:DE28 I32:DE34 I65:DE135 I36:DE61">
+    <cfRule type="expression" dxfId="535" priority="882" stopIfTrue="1">
       <formula>ISBLANK(I$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="883" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="883" stopIfTrue="1">
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="884" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="884" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="531" priority="885" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="885" stopIfTrue="1">
       <formula>ISBLANK(I$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="886" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="886" stopIfTrue="1">
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K4">
-    <cfRule type="expression" dxfId="529" priority="870" stopIfTrue="1">
+    <cfRule type="expression" dxfId="530" priority="870" stopIfTrue="1">
       <formula>ISBLANK(K$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="529" priority="871" stopIfTrue="1">
       <formula>OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K8 K10:K11">
-    <cfRule type="expression" dxfId="527" priority="872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="872" stopIfTrue="1">
       <formula>ISBLANK(K$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="873" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="873" stopIfTrue="1">
       <formula>OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="874" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="874" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L4">
-    <cfRule type="expression" dxfId="524" priority="862" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="862" stopIfTrue="1">
       <formula>ISBLANK(L$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="863" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="863" stopIfTrue="1">
       <formula>OR(WEEKDAY(L$3)=1,WEEKDAY(L$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L8 L10:L11">
-    <cfRule type="expression" dxfId="522" priority="864" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="864" stopIfTrue="1">
       <formula>ISBLANK(L$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="865" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="865" stopIfTrue="1">
       <formula>OR(WEEKDAY(L$3)=1,WEEKDAY(L$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="866" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="866" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M4">
-    <cfRule type="expression" dxfId="519" priority="854" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="854" stopIfTrue="1">
       <formula>ISBLANK(M$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="855" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="855" stopIfTrue="1">
       <formula>OR(WEEKDAY(M$3)=1,WEEKDAY(M$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M8 M10:M11">
-    <cfRule type="expression" dxfId="517" priority="856" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="856" stopIfTrue="1">
       <formula>ISBLANK(M$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="857" stopIfTrue="1">
+    <cfRule type="expression" dxfId="517" priority="857" stopIfTrue="1">
       <formula>OR(WEEKDAY(M$3)=1,WEEKDAY(M$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="858" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="858" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N4">
-    <cfRule type="expression" dxfId="514" priority="846" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="846" stopIfTrue="1">
       <formula>ISBLANK(N$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="847" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="847" stopIfTrue="1">
       <formula>OR(WEEKDAY(N$3)=1,WEEKDAY(N$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N8 N10:N11">
-    <cfRule type="expression" dxfId="512" priority="848" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="848" stopIfTrue="1">
       <formula>ISBLANK(N$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="849" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="849" stopIfTrue="1">
       <formula>OR(WEEKDAY(N$3)=1,WEEKDAY(N$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="850" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="850" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O4">
-    <cfRule type="expression" dxfId="509" priority="838" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="838" stopIfTrue="1">
       <formula>ISBLANK(O$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="839" stopIfTrue="1">
+    <cfRule type="expression" dxfId="509" priority="839" stopIfTrue="1">
       <formula>OR(WEEKDAY(O$3)=1,WEEKDAY(O$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:O8 O10:O11">
-    <cfRule type="expression" dxfId="507" priority="840" stopIfTrue="1">
+    <cfRule type="expression" dxfId="508" priority="840" stopIfTrue="1">
       <formula>ISBLANK(O$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="841" stopIfTrue="1">
+    <cfRule type="expression" dxfId="507" priority="841" stopIfTrue="1">
       <formula>OR(WEEKDAY(O$3)=1,WEEKDAY(O$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="842" stopIfTrue="1">
+    <cfRule type="expression" dxfId="506" priority="842" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P4">
-    <cfRule type="expression" dxfId="504" priority="830" stopIfTrue="1">
+    <cfRule type="expression" dxfId="505" priority="830" stopIfTrue="1">
       <formula>ISBLANK(P$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="503" priority="831" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="831" stopIfTrue="1">
       <formula>OR(WEEKDAY(P$3)=1,WEEKDAY(P$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5:P8 P10:P11">
-    <cfRule type="expression" dxfId="502" priority="832" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="832" stopIfTrue="1">
       <formula>ISBLANK(P$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="833" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="833" stopIfTrue="1">
       <formula>OR(WEEKDAY(P$3)=1,WEEKDAY(P$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="834" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="834" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q4">
-    <cfRule type="expression" dxfId="499" priority="822" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="822" stopIfTrue="1">
       <formula>ISBLANK(Q$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="823" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="823" stopIfTrue="1">
       <formula>OR(WEEKDAY(Q$3)=1,WEEKDAY(Q$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:Q8 Q10:Q11">
-    <cfRule type="expression" dxfId="497" priority="824" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="824" stopIfTrue="1">
       <formula>ISBLANK(Q$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="825" stopIfTrue="1">
+    <cfRule type="expression" dxfId="497" priority="825" stopIfTrue="1">
       <formula>OR(WEEKDAY(Q$3)=1,WEEKDAY(Q$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="826" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="826" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R4">
-    <cfRule type="expression" dxfId="494" priority="814" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="814" stopIfTrue="1">
       <formula>ISBLANK(R$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="815" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="815" stopIfTrue="1">
       <formula>OR(WEEKDAY(R$3)=1,WEEKDAY(R$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:R8 R10:R11">
-    <cfRule type="expression" dxfId="492" priority="816" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="816" stopIfTrue="1">
       <formula>ISBLANK(R$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="817" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="817" stopIfTrue="1">
       <formula>OR(WEEKDAY(R$3)=1,WEEKDAY(R$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="818" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="818" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S4">
-    <cfRule type="expression" dxfId="489" priority="806" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="806" stopIfTrue="1">
       <formula>ISBLANK(S$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="807" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="807" stopIfTrue="1">
       <formula>OR(WEEKDAY(S$3)=1,WEEKDAY(S$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S8 S10:S11">
-    <cfRule type="expression" dxfId="487" priority="808" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="808" stopIfTrue="1">
       <formula>ISBLANK(S$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="809" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="809" stopIfTrue="1">
       <formula>OR(WEEKDAY(S$3)=1,WEEKDAY(S$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="810" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="810" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T4">
-    <cfRule type="expression" dxfId="484" priority="798" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="798" stopIfTrue="1">
       <formula>ISBLANK(T$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="799" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="799" stopIfTrue="1">
       <formula>OR(WEEKDAY(T$3)=1,WEEKDAY(T$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:T8 T10:T11">
-    <cfRule type="expression" dxfId="482" priority="800" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="800" stopIfTrue="1">
       <formula>ISBLANK(T$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="801" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="801" stopIfTrue="1">
       <formula>OR(WEEKDAY(T$3)=1,WEEKDAY(T$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="802" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="802" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U4">
-    <cfRule type="expression" dxfId="479" priority="790" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="790" stopIfTrue="1">
       <formula>ISBLANK(U$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="791" stopIfTrue="1">
+    <cfRule type="expression" dxfId="479" priority="791" stopIfTrue="1">
       <formula>OR(WEEKDAY(U$3)=1,WEEKDAY(U$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U8 U10:U11">
-    <cfRule type="expression" dxfId="477" priority="792" stopIfTrue="1">
+    <cfRule type="expression" dxfId="478" priority="792" stopIfTrue="1">
       <formula>ISBLANK(U$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="793" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="793" stopIfTrue="1">
       <formula>OR(WEEKDAY(U$3)=1,WEEKDAY(U$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="794" stopIfTrue="1">
+    <cfRule type="expression" dxfId="476" priority="794" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V4">
-    <cfRule type="expression" dxfId="474" priority="782" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="782" stopIfTrue="1">
       <formula>ISBLANK(V$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="783" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="783" stopIfTrue="1">
       <formula>OR(WEEKDAY(V$3)=1,WEEKDAY(V$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:V8 V10:V11">
-    <cfRule type="expression" dxfId="472" priority="784" stopIfTrue="1">
+    <cfRule type="expression" dxfId="473" priority="784" stopIfTrue="1">
       <formula>ISBLANK(V$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="785" stopIfTrue="1">
+    <cfRule type="expression" dxfId="472" priority="785" stopIfTrue="1">
       <formula>OR(WEEKDAY(V$3)=1,WEEKDAY(V$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="786" stopIfTrue="1">
+    <cfRule type="expression" dxfId="471" priority="786" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W4">
-    <cfRule type="expression" dxfId="469" priority="774" stopIfTrue="1">
+    <cfRule type="expression" dxfId="470" priority="774" stopIfTrue="1">
       <formula>ISBLANK(W$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="775" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="775" stopIfTrue="1">
       <formula>OR(WEEKDAY(W$3)=1,WEEKDAY(W$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:W8 W10:W11">
-    <cfRule type="expression" dxfId="467" priority="776" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="776" stopIfTrue="1">
       <formula>ISBLANK(W$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="777" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="777" stopIfTrue="1">
       <formula>OR(WEEKDAY(W$3)=1,WEEKDAY(W$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="778" stopIfTrue="1">
+    <cfRule type="expression" dxfId="466" priority="778" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X4">
-    <cfRule type="expression" dxfId="464" priority="766" stopIfTrue="1">
+    <cfRule type="expression" dxfId="465" priority="766" stopIfTrue="1">
       <formula>ISBLANK(X$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="767" stopIfTrue="1">
+    <cfRule type="expression" dxfId="464" priority="767" stopIfTrue="1">
       <formula>OR(WEEKDAY(X$3)=1,WEEKDAY(X$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5:X8 X10:X11">
-    <cfRule type="expression" dxfId="462" priority="768" stopIfTrue="1">
+    <cfRule type="expression" dxfId="463" priority="768" stopIfTrue="1">
       <formula>ISBLANK(X$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="769" stopIfTrue="1">
+    <cfRule type="expression" dxfId="462" priority="769" stopIfTrue="1">
       <formula>OR(WEEKDAY(X$3)=1,WEEKDAY(X$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="770" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="770" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y4">
-    <cfRule type="expression" dxfId="459" priority="758" stopIfTrue="1">
+    <cfRule type="expression" dxfId="460" priority="758" stopIfTrue="1">
       <formula>ISBLANK(Y$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="759" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="759" stopIfTrue="1">
       <formula>OR(WEEKDAY(Y$3)=1,WEEKDAY(Y$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:Y8 Y10:Y11">
-    <cfRule type="expression" dxfId="457" priority="760" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="760" stopIfTrue="1">
       <formula>ISBLANK(Y$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="761" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="761" stopIfTrue="1">
       <formula>OR(WEEKDAY(Y$3)=1,WEEKDAY(Y$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="762" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="762" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z4">
-    <cfRule type="expression" dxfId="454" priority="750" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="750" stopIfTrue="1">
       <formula>ISBLANK(Z$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="751" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="751" stopIfTrue="1">
       <formula>OR(WEEKDAY(Z$3)=1,WEEKDAY(Z$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:Z8 Z10:Z11">
-    <cfRule type="expression" dxfId="452" priority="752" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="752" stopIfTrue="1">
       <formula>ISBLANK(Z$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="753" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="753" stopIfTrue="1">
       <formula>OR(WEEKDAY(Z$3)=1,WEEKDAY(Z$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="754" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="754" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA4">
-    <cfRule type="expression" dxfId="449" priority="742" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="742" stopIfTrue="1">
       <formula>ISBLANK(AA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="743" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="743" stopIfTrue="1">
       <formula>OR(WEEKDAY(AA$3)=1,WEEKDAY(AA$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA8 AA10:AA11">
-    <cfRule type="expression" dxfId="447" priority="744" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="744" stopIfTrue="1">
       <formula>ISBLANK(AA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="745" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="745" stopIfTrue="1">
       <formula>OR(WEEKDAY(AA$3)=1,WEEKDAY(AA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="746" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="746" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB4">
-    <cfRule type="expression" dxfId="444" priority="734" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="734" stopIfTrue="1">
       <formula>ISBLANK(AB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="735" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="735" stopIfTrue="1">
       <formula>OR(WEEKDAY(AB$3)=1,WEEKDAY(AB$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB8 AB10:AB11">
-    <cfRule type="expression" dxfId="442" priority="736" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="736" stopIfTrue="1">
       <formula>ISBLANK(AB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="737" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="737" stopIfTrue="1">
       <formula>OR(WEEKDAY(AB$3)=1,WEEKDAY(AB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="738" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="738" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AC4">
-    <cfRule type="expression" dxfId="439" priority="726" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="726" stopIfTrue="1">
       <formula>ISBLANK(AC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="727" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="727" stopIfTrue="1">
       <formula>OR(WEEKDAY(AC$3)=1,WEEKDAY(AC$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5:AC8 AC10:AC11">
-    <cfRule type="expression" dxfId="437" priority="728" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="728" stopIfTrue="1">
       <formula>ISBLANK(AC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="729" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="729" stopIfTrue="1">
       <formula>OR(WEEKDAY(AC$3)=1,WEEKDAY(AC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="730" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="730" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD4">
-    <cfRule type="expression" dxfId="434" priority="718" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="718" stopIfTrue="1">
       <formula>ISBLANK(AD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="719" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="719" stopIfTrue="1">
       <formula>OR(WEEKDAY(AD$3)=1,WEEKDAY(AD$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5:AD8 AD10:AD11">
-    <cfRule type="expression" dxfId="432" priority="720" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="720" stopIfTrue="1">
       <formula>ISBLANK(AD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="721" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="721" stopIfTrue="1">
       <formula>OR(WEEKDAY(AD$3)=1,WEEKDAY(AD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="722" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="722" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE4">
-    <cfRule type="expression" dxfId="429" priority="710" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="710" stopIfTrue="1">
       <formula>ISBLANK(AE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="711" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="711" stopIfTrue="1">
       <formula>OR(WEEKDAY(AE$3)=1,WEEKDAY(AE$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AE8 AE10:AE11">
-    <cfRule type="expression" dxfId="427" priority="712" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="712" stopIfTrue="1">
       <formula>ISBLANK(AE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="713" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="713" stopIfTrue="1">
       <formula>OR(WEEKDAY(AE$3)=1,WEEKDAY(AE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="714" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="714" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AF4">
-    <cfRule type="expression" dxfId="424" priority="702" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="702" stopIfTrue="1">
       <formula>ISBLANK(AF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="703" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="703" stopIfTrue="1">
       <formula>OR(WEEKDAY(AF$3)=1,WEEKDAY(AF$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AF8 AF10:AF11">
-    <cfRule type="expression" dxfId="422" priority="704" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="704" stopIfTrue="1">
       <formula>ISBLANK(AF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="705" stopIfTrue="1">
       <formula>OR(WEEKDAY(AF$3)=1,WEEKDAY(AF$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="706" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AG4">
-    <cfRule type="expression" dxfId="419" priority="694" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="694" stopIfTrue="1">
       <formula>ISBLANK(AG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="695" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="695" stopIfTrue="1">
       <formula>OR(WEEKDAY(AG$3)=1,WEEKDAY(AG$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AG8 AG10:AG11">
-    <cfRule type="expression" dxfId="417" priority="696" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="696" stopIfTrue="1">
       <formula>ISBLANK(AG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="697" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="697" stopIfTrue="1">
       <formula>OR(WEEKDAY(AG$3)=1,WEEKDAY(AG$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="698" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="698" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3:AH4">
-    <cfRule type="expression" dxfId="414" priority="686" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="686" stopIfTrue="1">
       <formula>ISBLANK(AH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="687" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="687" stopIfTrue="1">
       <formula>OR(WEEKDAY(AH$3)=1,WEEKDAY(AH$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH5:AH8 AH10:AH11">
-    <cfRule type="expression" dxfId="412" priority="688" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="688" stopIfTrue="1">
       <formula>ISBLANK(AH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="689" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="689" stopIfTrue="1">
       <formula>OR(WEEKDAY(AH$3)=1,WEEKDAY(AH$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="690" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="690" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3:AI4">
-    <cfRule type="expression" dxfId="409" priority="678" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="678" stopIfTrue="1">
       <formula>ISBLANK(AI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="679" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="679" stopIfTrue="1">
       <formula>OR(WEEKDAY(AI$3)=1,WEEKDAY(AI$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI5:AI8 AI10:AI11">
-    <cfRule type="expression" dxfId="407" priority="680" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="680" stopIfTrue="1">
       <formula>ISBLANK(AI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="681" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="681" stopIfTrue="1">
       <formula>OR(WEEKDAY(AI$3)=1,WEEKDAY(AI$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="682" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="682" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AJ4">
-    <cfRule type="expression" dxfId="404" priority="670" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="670" stopIfTrue="1">
       <formula>ISBLANK(AJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="671" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="671" stopIfTrue="1">
       <formula>OR(WEEKDAY(AJ$3)=1,WEEKDAY(AJ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ5:AJ8 AJ10:AJ11">
-    <cfRule type="expression" dxfId="402" priority="672" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="672" stopIfTrue="1">
       <formula>ISBLANK(AJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="673" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="673" stopIfTrue="1">
       <formula>OR(WEEKDAY(AJ$3)=1,WEEKDAY(AJ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="674" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="674" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK3:AK4">
-    <cfRule type="expression" dxfId="399" priority="662" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="662" stopIfTrue="1">
       <formula>ISBLANK(AK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="663" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="663" stopIfTrue="1">
       <formula>OR(WEEKDAY(AK$3)=1,WEEKDAY(AK$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK5:AK8 AK10:AK11">
-    <cfRule type="expression" dxfId="397" priority="664" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="664" stopIfTrue="1">
       <formula>ISBLANK(AK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="665" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="665" stopIfTrue="1">
       <formula>OR(WEEKDAY(AK$3)=1,WEEKDAY(AK$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="666" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="666" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3:AL4">
-    <cfRule type="expression" dxfId="394" priority="654" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="654" stopIfTrue="1">
       <formula>ISBLANK(AL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="655" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="655" stopIfTrue="1">
       <formula>OR(WEEKDAY(AL$3)=1,WEEKDAY(AL$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL5:AL8 AL10:AL11">
-    <cfRule type="expression" dxfId="392" priority="656" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="656" stopIfTrue="1">
       <formula>ISBLANK(AL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="657" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="657" stopIfTrue="1">
       <formula>OR(WEEKDAY(AL$3)=1,WEEKDAY(AL$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="658" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="658" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM3:AM4">
-    <cfRule type="expression" dxfId="389" priority="646" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="646" stopIfTrue="1">
       <formula>ISBLANK(AM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="647" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="647" stopIfTrue="1">
       <formula>OR(WEEKDAY(AM$3)=1,WEEKDAY(AM$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM5:AM8 AM10:AM11">
-    <cfRule type="expression" dxfId="387" priority="648" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="648" stopIfTrue="1">
       <formula>ISBLANK(AM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="649" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="649" stopIfTrue="1">
       <formula>OR(WEEKDAY(AM$3)=1,WEEKDAY(AM$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="650" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="650" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN3:AN4">
-    <cfRule type="expression" dxfId="384" priority="638" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="638" stopIfTrue="1">
       <formula>ISBLANK(AN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="639" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="639" stopIfTrue="1">
       <formula>OR(WEEKDAY(AN$3)=1,WEEKDAY(AN$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN5:AN8 AN10:AN11">
-    <cfRule type="expression" dxfId="382" priority="640" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="640" stopIfTrue="1">
       <formula>ISBLANK(AN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="641" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="641" stopIfTrue="1">
       <formula>OR(WEEKDAY(AN$3)=1,WEEKDAY(AN$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="642" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="642" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO3:AO4">
-    <cfRule type="expression" dxfId="379" priority="630" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="630" stopIfTrue="1">
       <formula>ISBLANK(AO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="631" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="631" stopIfTrue="1">
       <formula>OR(WEEKDAY(AO$3)=1,WEEKDAY(AO$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AO8 AO10:AO11">
-    <cfRule type="expression" dxfId="377" priority="632" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="632" stopIfTrue="1">
       <formula>ISBLANK(AO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="633" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="633" stopIfTrue="1">
       <formula>OR(WEEKDAY(AO$3)=1,WEEKDAY(AO$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="634" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="634" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP3:AP4">
-    <cfRule type="expression" dxfId="374" priority="622" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="622" stopIfTrue="1">
       <formula>ISBLANK(AP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="623" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="623" stopIfTrue="1">
       <formula>OR(WEEKDAY(AP$3)=1,WEEKDAY(AP$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP5:AP8 AP10:AP11">
-    <cfRule type="expression" dxfId="372" priority="624" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="624" stopIfTrue="1">
       <formula>ISBLANK(AP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="625" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="625" stopIfTrue="1">
       <formula>OR(WEEKDAY(AP$3)=1,WEEKDAY(AP$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="626" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="626" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3:AQ4">
-    <cfRule type="expression" dxfId="369" priority="614" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="614" stopIfTrue="1">
       <formula>ISBLANK(AQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="615" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="615" stopIfTrue="1">
       <formula>OR(WEEKDAY(AQ$3)=1,WEEKDAY(AQ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ5:AQ8 AQ10:AQ11">
-    <cfRule type="expression" dxfId="367" priority="616" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="616" stopIfTrue="1">
       <formula>ISBLANK(AQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="617" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="617" stopIfTrue="1">
       <formula>OR(WEEKDAY(AQ$3)=1,WEEKDAY(AQ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="618" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="618" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR3:AR4">
-    <cfRule type="expression" dxfId="364" priority="606" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="606" stopIfTrue="1">
       <formula>ISBLANK(AR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="607" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="607" stopIfTrue="1">
       <formula>OR(WEEKDAY(AR$3)=1,WEEKDAY(AR$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR5:AR8 AR10:AR11">
-    <cfRule type="expression" dxfId="362" priority="608" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="608" stopIfTrue="1">
       <formula>ISBLANK(AR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="609" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="609" stopIfTrue="1">
       <formula>OR(WEEKDAY(AR$3)=1,WEEKDAY(AR$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="610" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="610" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS3:AS4">
-    <cfRule type="expression" dxfId="359" priority="598" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="598" stopIfTrue="1">
       <formula>ISBLANK(AS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="599" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="599" stopIfTrue="1">
       <formula>OR(WEEKDAY(AS$3)=1,WEEKDAY(AS$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS5:AS8 AS10:AS11">
-    <cfRule type="expression" dxfId="357" priority="600" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="600" stopIfTrue="1">
       <formula>ISBLANK(AS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="601" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="601" stopIfTrue="1">
       <formula>OR(WEEKDAY(AS$3)=1,WEEKDAY(AS$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="602" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="602" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT3:AT4">
-    <cfRule type="expression" dxfId="354" priority="590" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="590" stopIfTrue="1">
       <formula>ISBLANK(AT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="591" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="591" stopIfTrue="1">
       <formula>OR(WEEKDAY(AT$3)=1,WEEKDAY(AT$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT5:AT8 AT10:AT11">
-    <cfRule type="expression" dxfId="352" priority="592" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="592" stopIfTrue="1">
       <formula>ISBLANK(AT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="593" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="593" stopIfTrue="1">
       <formula>OR(WEEKDAY(AT$3)=1,WEEKDAY(AT$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="594" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="594" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU3:AU4">
-    <cfRule type="expression" dxfId="349" priority="582" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="582" stopIfTrue="1">
       <formula>ISBLANK(AU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="583" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="583" stopIfTrue="1">
       <formula>OR(WEEKDAY(AU$3)=1,WEEKDAY(AU$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AU8 AU10:AU11">
-    <cfRule type="expression" dxfId="347" priority="584" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="584" stopIfTrue="1">
       <formula>ISBLANK(AU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="585" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="585" stopIfTrue="1">
       <formula>OR(WEEKDAY(AU$3)=1,WEEKDAY(AU$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="586" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="586" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV3:AV4">
-    <cfRule type="expression" dxfId="344" priority="574" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="574" stopIfTrue="1">
       <formula>ISBLANK(AV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="575" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="575" stopIfTrue="1">
       <formula>OR(WEEKDAY(AV$3)=1,WEEKDAY(AV$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV5:AV8 AV10:AV11">
-    <cfRule type="expression" dxfId="342" priority="576" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="576" stopIfTrue="1">
       <formula>ISBLANK(AV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="577" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="577" stopIfTrue="1">
       <formula>OR(WEEKDAY(AV$3)=1,WEEKDAY(AV$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="578" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="578" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW3:AW4">
-    <cfRule type="expression" dxfId="339" priority="566" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="566" stopIfTrue="1">
       <formula>ISBLANK(AW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="567" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="567" stopIfTrue="1">
       <formula>OR(WEEKDAY(AW$3)=1,WEEKDAY(AW$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW5:AW8 AW10:AW11">
-    <cfRule type="expression" dxfId="337" priority="568" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="568" stopIfTrue="1">
       <formula>ISBLANK(AW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="569" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="569" stopIfTrue="1">
       <formula>OR(WEEKDAY(AW$3)=1,WEEKDAY(AW$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="570" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="570" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX3:AX4">
-    <cfRule type="expression" dxfId="334" priority="558" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="558" stopIfTrue="1">
       <formula>ISBLANK(AX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="559" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="559" stopIfTrue="1">
       <formula>OR(WEEKDAY(AX$3)=1,WEEKDAY(AX$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX5:AX8 AX10:AX11">
-    <cfRule type="expression" dxfId="332" priority="560" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="560" stopIfTrue="1">
       <formula>ISBLANK(AX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="561" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="561" stopIfTrue="1">
       <formula>OR(WEEKDAY(AX$3)=1,WEEKDAY(AX$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="562" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="562" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY3:AY4">
-    <cfRule type="expression" dxfId="329" priority="550" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="550" stopIfTrue="1">
       <formula>ISBLANK(AY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="551" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="551" stopIfTrue="1">
       <formula>OR(WEEKDAY(AY$3)=1,WEEKDAY(AY$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY5:AY8 AY10:AY11">
-    <cfRule type="expression" dxfId="327" priority="552" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="552" stopIfTrue="1">
       <formula>ISBLANK(AY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="553" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="553" stopIfTrue="1">
       <formula>OR(WEEKDAY(AY$3)=1,WEEKDAY(AY$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="554" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="554" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ3:AZ4">
-    <cfRule type="expression" dxfId="324" priority="542" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="542" stopIfTrue="1">
       <formula>ISBLANK(AZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="543" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="543" stopIfTrue="1">
       <formula>OR(WEEKDAY(AZ$3)=1,WEEKDAY(AZ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ5:AZ8 AZ10:AZ11">
-    <cfRule type="expression" dxfId="322" priority="544" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="544" stopIfTrue="1">
       <formula>ISBLANK(AZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="545" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="545" stopIfTrue="1">
       <formula>OR(WEEKDAY(AZ$3)=1,WEEKDAY(AZ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="546" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="546" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA3:BA4">
-    <cfRule type="expression" dxfId="319" priority="534" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="534" stopIfTrue="1">
       <formula>ISBLANK(BA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="535" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="535" stopIfTrue="1">
       <formula>OR(WEEKDAY(BA$3)=1,WEEKDAY(BA$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA5:BA8 BA10:BA11">
-    <cfRule type="expression" dxfId="317" priority="536" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="536" stopIfTrue="1">
       <formula>ISBLANK(BA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="537" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="537" stopIfTrue="1">
       <formula>OR(WEEKDAY(BA$3)=1,WEEKDAY(BA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="538" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="538" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB3:BB4">
-    <cfRule type="expression" dxfId="314" priority="526" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="526" stopIfTrue="1">
       <formula>ISBLANK(BB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="527" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="527" stopIfTrue="1">
       <formula>OR(WEEKDAY(BB$3)=1,WEEKDAY(BB$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB5:BB8 BB10:BB11">
-    <cfRule type="expression" dxfId="312" priority="528" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="528" stopIfTrue="1">
       <formula>ISBLANK(BB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="529" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="529" stopIfTrue="1">
       <formula>OR(WEEKDAY(BB$3)=1,WEEKDAY(BB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="530" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="530" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC3:BC4">
-    <cfRule type="expression" dxfId="309" priority="518" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="518" stopIfTrue="1">
       <formula>ISBLANK(BC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="519" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="519" stopIfTrue="1">
       <formula>OR(WEEKDAY(BC$3)=1,WEEKDAY(BC$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC5:BC8 BC10:BC11">
-    <cfRule type="expression" dxfId="307" priority="520" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="520" stopIfTrue="1">
       <formula>ISBLANK(BC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="521" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="521" stopIfTrue="1">
       <formula>OR(WEEKDAY(BC$3)=1,WEEKDAY(BC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="522" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="522" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD3:BD4">
-    <cfRule type="expression" dxfId="304" priority="510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="510" stopIfTrue="1">
       <formula>ISBLANK(BD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="511" stopIfTrue="1">
       <formula>OR(WEEKDAY(BD$3)=1,WEEKDAY(BD$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD5:BD8 BD10:BD11">
-    <cfRule type="expression" dxfId="302" priority="512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="512" stopIfTrue="1">
       <formula>ISBLANK(BD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="513" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="513" stopIfTrue="1">
       <formula>OR(WEEKDAY(BD$3)=1,WEEKDAY(BD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="514" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="514" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE3:BE4">
-    <cfRule type="expression" dxfId="299" priority="502" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="502" stopIfTrue="1">
       <formula>ISBLANK(BE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="503" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="503" stopIfTrue="1">
       <formula>OR(WEEKDAY(BE$3)=1,WEEKDAY(BE$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE5:BE8 BE10:BE11">
-    <cfRule type="expression" dxfId="297" priority="504" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="504" stopIfTrue="1">
       <formula>ISBLANK(BE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="505" stopIfTrue="1">
       <formula>OR(WEEKDAY(BE$3)=1,WEEKDAY(BE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="506" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="506" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BF4">
-    <cfRule type="expression" dxfId="294" priority="494" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="494" stopIfTrue="1">
       <formula>ISBLANK(BF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="495" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="495" stopIfTrue="1">
       <formula>OR(WEEKDAY(BF$3)=1,WEEKDAY(BF$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF5:BF8 BF10:BF11">
-    <cfRule type="expression" dxfId="292" priority="496" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="496" stopIfTrue="1">
       <formula>ISBLANK(BF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="497" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="497" stopIfTrue="1">
       <formula>OR(WEEKDAY(BF$3)=1,WEEKDAY(BF$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="498" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="498" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG3:BG4">
-    <cfRule type="expression" dxfId="289" priority="486" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="486" stopIfTrue="1">
       <formula>ISBLANK(BG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="487" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="487" stopIfTrue="1">
       <formula>OR(WEEKDAY(BG$3)=1,WEEKDAY(BG$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG5:BG8 BG10:BG11">
-    <cfRule type="expression" dxfId="287" priority="488" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="488" stopIfTrue="1">
       <formula>ISBLANK(BG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="489" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="489" stopIfTrue="1">
       <formula>OR(WEEKDAY(BG$3)=1,WEEKDAY(BG$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="490" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="490" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH3:BH4">
-    <cfRule type="expression" dxfId="284" priority="478" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="478" stopIfTrue="1">
       <formula>ISBLANK(BH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="479" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="479" stopIfTrue="1">
       <formula>OR(WEEKDAY(BH$3)=1,WEEKDAY(BH$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH5:BH8 BH10:BH11">
-    <cfRule type="expression" dxfId="282" priority="480" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="480" stopIfTrue="1">
       <formula>ISBLANK(BH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="481" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="481" stopIfTrue="1">
       <formula>OR(WEEKDAY(BH$3)=1,WEEKDAY(BH$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="482" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="482" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI3:BI4">
-    <cfRule type="expression" dxfId="279" priority="470" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="470" stopIfTrue="1">
       <formula>ISBLANK(BI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="471" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="471" stopIfTrue="1">
       <formula>OR(WEEKDAY(BI$3)=1,WEEKDAY(BI$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI5:BI8 BI10:BI11">
-    <cfRule type="expression" dxfId="277" priority="472" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="472" stopIfTrue="1">
       <formula>ISBLANK(BI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="473" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="473" stopIfTrue="1">
       <formula>OR(WEEKDAY(BI$3)=1,WEEKDAY(BI$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="474" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="474" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ3:BJ4">
-    <cfRule type="expression" dxfId="274" priority="462" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="462" stopIfTrue="1">
       <formula>ISBLANK(BJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="463" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="463" stopIfTrue="1">
       <formula>OR(WEEKDAY(BJ$3)=1,WEEKDAY(BJ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ5:BJ8 BJ10:BJ11">
-    <cfRule type="expression" dxfId="272" priority="464" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="464" stopIfTrue="1">
       <formula>ISBLANK(BJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="465" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="465" stopIfTrue="1">
       <formula>OR(WEEKDAY(BJ$3)=1,WEEKDAY(BJ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="466" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="466" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK3:BK4">
-    <cfRule type="expression" dxfId="269" priority="454" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="454" stopIfTrue="1">
       <formula>ISBLANK(BK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="455" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="455" stopIfTrue="1">
       <formula>OR(WEEKDAY(BK$3)=1,WEEKDAY(BK$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK5:BK8 BK10:BK11">
-    <cfRule type="expression" dxfId="267" priority="456" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="456" stopIfTrue="1">
       <formula>ISBLANK(BK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="457" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="457" stopIfTrue="1">
       <formula>OR(WEEKDAY(BK$3)=1,WEEKDAY(BK$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="458" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="458" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL3:BL4">
-    <cfRule type="expression" dxfId="264" priority="446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="446" stopIfTrue="1">
       <formula>ISBLANK(BL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="447" stopIfTrue="1">
       <formula>OR(WEEKDAY(BL$3)=1,WEEKDAY(BL$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL5:BL8 BL10:BL11">
-    <cfRule type="expression" dxfId="262" priority="448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="448" stopIfTrue="1">
       <formula>ISBLANK(BL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="449" stopIfTrue="1">
       <formula>OR(WEEKDAY(BL$3)=1,WEEKDAY(BL$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="450" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="450" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM3:BM4">
-    <cfRule type="expression" dxfId="259" priority="438" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="438" stopIfTrue="1">
       <formula>ISBLANK(BM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="439" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="439" stopIfTrue="1">
       <formula>OR(WEEKDAY(BM$3)=1,WEEKDAY(BM$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM5:BM8 BM10:BM11">
-    <cfRule type="expression" dxfId="257" priority="440" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="440" stopIfTrue="1">
       <formula>ISBLANK(BM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="441" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="441" stopIfTrue="1">
       <formula>OR(WEEKDAY(BM$3)=1,WEEKDAY(BM$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="442" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="442" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN3:BN4">
-    <cfRule type="expression" dxfId="254" priority="430" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="430" stopIfTrue="1">
       <formula>ISBLANK(BN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="431" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="431" stopIfTrue="1">
       <formula>OR(WEEKDAY(BN$3)=1,WEEKDAY(BN$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN5:BN8 BN10:BN11">
-    <cfRule type="expression" dxfId="252" priority="432" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="432" stopIfTrue="1">
       <formula>ISBLANK(BN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="433" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="433" stopIfTrue="1">
       <formula>OR(WEEKDAY(BN$3)=1,WEEKDAY(BN$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="434" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="434" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO3:BO4">
-    <cfRule type="expression" dxfId="249" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="422" stopIfTrue="1">
       <formula>ISBLANK(BO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="423" stopIfTrue="1">
       <formula>OR(WEEKDAY(BO$3)=1,WEEKDAY(BO$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO5:BO8 BO10:BO11">
-    <cfRule type="expression" dxfId="247" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="424" stopIfTrue="1">
       <formula>ISBLANK(BO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="425" stopIfTrue="1">
       <formula>OR(WEEKDAY(BO$3)=1,WEEKDAY(BO$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="426" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="426" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP3:BP4">
-    <cfRule type="expression" dxfId="244" priority="414" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="414" stopIfTrue="1">
       <formula>ISBLANK(BP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="415" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="415" stopIfTrue="1">
       <formula>OR(WEEKDAY(BP$3)=1,WEEKDAY(BP$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP5:BP8 BP10:BP11">
-    <cfRule type="expression" dxfId="242" priority="416" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="416" stopIfTrue="1">
       <formula>ISBLANK(BP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="417" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="417" stopIfTrue="1">
       <formula>OR(WEEKDAY(BP$3)=1,WEEKDAY(BP$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="418" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="418" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ3:BQ4">
-    <cfRule type="expression" dxfId="239" priority="406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="406" stopIfTrue="1">
       <formula>ISBLANK(BQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="407" stopIfTrue="1">
       <formula>OR(WEEKDAY(BQ$3)=1,WEEKDAY(BQ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ5:BQ8 BQ10:BQ11">
-    <cfRule type="expression" dxfId="237" priority="408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="408" stopIfTrue="1">
       <formula>ISBLANK(BQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="409" stopIfTrue="1">
       <formula>OR(WEEKDAY(BQ$3)=1,WEEKDAY(BQ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="410" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="410" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR3:BR4">
-    <cfRule type="expression" dxfId="234" priority="398" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="398" stopIfTrue="1">
       <formula>ISBLANK(BR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="399" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="399" stopIfTrue="1">
       <formula>OR(WEEKDAY(BR$3)=1,WEEKDAY(BR$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR5:BR8 BR10:BR11">
-    <cfRule type="expression" dxfId="232" priority="400" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="400" stopIfTrue="1">
       <formula>ISBLANK(BR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="401" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="401" stopIfTrue="1">
       <formula>OR(WEEKDAY(BR$3)=1,WEEKDAY(BR$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="402" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="402" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS3:BS4">
-    <cfRule type="expression" dxfId="229" priority="390" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="390" stopIfTrue="1">
       <formula>ISBLANK(BS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="391" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="391" stopIfTrue="1">
       <formula>OR(WEEKDAY(BS$3)=1,WEEKDAY(BS$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS5:BS8 BS10:BS11">
-    <cfRule type="expression" dxfId="227" priority="392" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="392" stopIfTrue="1">
       <formula>ISBLANK(BS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="393" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="393" stopIfTrue="1">
       <formula>OR(WEEKDAY(BS$3)=1,WEEKDAY(BS$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="394" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="394" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT3:BT4">
-    <cfRule type="expression" dxfId="224" priority="382" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="382" stopIfTrue="1">
       <formula>ISBLANK(BT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="383" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="383" stopIfTrue="1">
       <formula>OR(WEEKDAY(BT$3)=1,WEEKDAY(BT$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT5:BT8 BT10:BT11">
-    <cfRule type="expression" dxfId="222" priority="384" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="384" stopIfTrue="1">
       <formula>ISBLANK(BT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="385" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="385" stopIfTrue="1">
       <formula>OR(WEEKDAY(BT$3)=1,WEEKDAY(BT$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="386" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="386" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU3:BU4">
-    <cfRule type="expression" dxfId="219" priority="374" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="374" stopIfTrue="1">
       <formula>ISBLANK(BU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="375" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="375" stopIfTrue="1">
       <formula>OR(WEEKDAY(BU$3)=1,WEEKDAY(BU$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU5:BU8 BU10:BU11">
-    <cfRule type="expression" dxfId="217" priority="376" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="376" stopIfTrue="1">
       <formula>ISBLANK(BU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="377" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="377" stopIfTrue="1">
       <formula>OR(WEEKDAY(BU$3)=1,WEEKDAY(BU$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="378" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="378" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV3:BV4">
-    <cfRule type="expression" dxfId="214" priority="366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="366" stopIfTrue="1">
       <formula>ISBLANK(BV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="367" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="367" stopIfTrue="1">
       <formula>OR(WEEKDAY(BV$3)=1,WEEKDAY(BV$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV5:BV8 BV10:BV11">
-    <cfRule type="expression" dxfId="212" priority="368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="368" stopIfTrue="1">
       <formula>ISBLANK(BV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="369" stopIfTrue="1">
       <formula>OR(WEEKDAY(BV$3)=1,WEEKDAY(BV$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="370" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="370" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW3:BW4">
-    <cfRule type="expression" dxfId="209" priority="358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="358" stopIfTrue="1">
       <formula>ISBLANK(BW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="359" stopIfTrue="1">
       <formula>OR(WEEKDAY(BW$3)=1,WEEKDAY(BW$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW5:BW8 BW10:BW11">
-    <cfRule type="expression" dxfId="207" priority="360" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="360" stopIfTrue="1">
       <formula>ISBLANK(BW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="361" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="361" stopIfTrue="1">
       <formula>OR(WEEKDAY(BW$3)=1,WEEKDAY(BW$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="362" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="362" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX3:BX4">
-    <cfRule type="expression" dxfId="204" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="350" stopIfTrue="1">
       <formula>ISBLANK(BX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="351" stopIfTrue="1">
       <formula>OR(WEEKDAY(BX$3)=1,WEEKDAY(BX$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX5:BX8 BX10:BX11">
-    <cfRule type="expression" dxfId="202" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="352" stopIfTrue="1">
       <formula>ISBLANK(BX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="353" stopIfTrue="1">
       <formula>OR(WEEKDAY(BX$3)=1,WEEKDAY(BX$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="354" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY3:BY4">
-    <cfRule type="expression" dxfId="199" priority="342" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="342" stopIfTrue="1">
       <formula>ISBLANK(BY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="343" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="343" stopIfTrue="1">
       <formula>OR(WEEKDAY(BY$3)=1,WEEKDAY(BY$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:BY8 BY10:BY11">
-    <cfRule type="expression" dxfId="197" priority="344" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="344" stopIfTrue="1">
       <formula>ISBLANK(BY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="345" stopIfTrue="1">
       <formula>OR(WEEKDAY(BY$3)=1,WEEKDAY(BY$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="346" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="346" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ3:BZ4">
-    <cfRule type="expression" dxfId="194" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="334" stopIfTrue="1">
       <formula>ISBLANK(BZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="335" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="335" stopIfTrue="1">
       <formula>OR(WEEKDAY(BZ$3)=1,WEEKDAY(BZ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ5:BZ8 BZ10:BZ11">
-    <cfRule type="expression" dxfId="192" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="336" stopIfTrue="1">
       <formula>ISBLANK(BZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="337" stopIfTrue="1">
       <formula>OR(WEEKDAY(BZ$3)=1,WEEKDAY(BZ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="338" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA3:CA4">
-    <cfRule type="expression" dxfId="189" priority="326" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="326" stopIfTrue="1">
       <formula>ISBLANK(CA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="327" stopIfTrue="1">
       <formula>OR(WEEKDAY(CA$3)=1,WEEKDAY(CA$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA5:CA8 CA10:CA11">
-    <cfRule type="expression" dxfId="187" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="328" stopIfTrue="1">
       <formula>ISBLANK(CA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="329" stopIfTrue="1">
       <formula>OR(WEEKDAY(CA$3)=1,WEEKDAY(CA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="330" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB3:CB4">
-    <cfRule type="expression" dxfId="184" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="318" stopIfTrue="1">
       <formula>ISBLANK(CB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="319" stopIfTrue="1">
       <formula>OR(WEEKDAY(CB$3)=1,WEEKDAY(CB$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB5:CB8 CB10:CB11">
-    <cfRule type="expression" dxfId="182" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="320" stopIfTrue="1">
       <formula>ISBLANK(CB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="321" stopIfTrue="1">
       <formula>OR(WEEKDAY(CB$3)=1,WEEKDAY(CB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="322" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC3:CC4">
-    <cfRule type="expression" dxfId="179" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="310" stopIfTrue="1">
       <formula>ISBLANK(CC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="311" stopIfTrue="1">
       <formula>OR(WEEKDAY(CC$3)=1,WEEKDAY(CC$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC5:CC8 CC10:CC11">
-    <cfRule type="expression" dxfId="177" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="312" stopIfTrue="1">
       <formula>ISBLANK(CC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="313" stopIfTrue="1">
       <formula>OR(WEEKDAY(CC$3)=1,WEEKDAY(CC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="314" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD3:CD4">
-    <cfRule type="expression" dxfId="174" priority="302" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="302" stopIfTrue="1">
       <formula>ISBLANK(CD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="303" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="303" stopIfTrue="1">
       <formula>OR(WEEKDAY(CD$3)=1,WEEKDAY(CD$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD5:CD8 CD10:CD11">
-    <cfRule type="expression" dxfId="172" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="304" stopIfTrue="1">
       <formula>ISBLANK(CD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="305" stopIfTrue="1">
       <formula>OR(WEEKDAY(CD$3)=1,WEEKDAY(CD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="306" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE3:CE4">
-    <cfRule type="expression" dxfId="169" priority="294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="294" stopIfTrue="1">
       <formula>ISBLANK(CE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="295" stopIfTrue="1">
       <formula>OR(WEEKDAY(CE$3)=1,WEEKDAY(CE$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE5:CE8 CE10:CE11">
-    <cfRule type="expression" dxfId="167" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="296" stopIfTrue="1">
       <formula>ISBLANK(CE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="297" stopIfTrue="1">
       <formula>OR(WEEKDAY(CE$3)=1,WEEKDAY(CE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="298" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF3:CF4">
-    <cfRule type="expression" dxfId="164" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="286" stopIfTrue="1">
       <formula>ISBLANK(CF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="287" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="287" stopIfTrue="1">
       <formula>OR(WEEKDAY(CF$3)=1,WEEKDAY(CF$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF5:CF8 CF10:CF11">
-    <cfRule type="expression" dxfId="162" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="288" stopIfTrue="1">
       <formula>ISBLANK(CF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="289" stopIfTrue="1">
       <formula>OR(WEEKDAY(CF$3)=1,WEEKDAY(CF$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="290" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG3:CG4">
-    <cfRule type="expression" dxfId="159" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="278" stopIfTrue="1">
       <formula>ISBLANK(CG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="279" stopIfTrue="1">
       <formula>OR(WEEKDAY(CG$3)=1,WEEKDAY(CG$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG5:CG8 CG10:CG11">
-    <cfRule type="expression" dxfId="157" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="280" stopIfTrue="1">
       <formula>ISBLANK(CG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="281" stopIfTrue="1">
       <formula>OR(WEEKDAY(CG$3)=1,WEEKDAY(CG$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="282" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH3:CH4">
-    <cfRule type="expression" dxfId="154" priority="270" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="270" stopIfTrue="1">
       <formula>ISBLANK(CH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="271" stopIfTrue="1">
       <formula>OR(WEEKDAY(CH$3)=1,WEEKDAY(CH$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH5:CH8 CH10:CH11">
-    <cfRule type="expression" dxfId="152" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="272" stopIfTrue="1">
       <formula>ISBLANK(CH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="273" stopIfTrue="1">
       <formula>OR(WEEKDAY(CH$3)=1,WEEKDAY(CH$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="274" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="274" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI3:CI4">
-    <cfRule type="expression" dxfId="149" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="262" stopIfTrue="1">
       <formula>ISBLANK(CI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="263" stopIfTrue="1">
       <formula>OR(WEEKDAY(CI$3)=1,WEEKDAY(CI$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI5:CI8 CI10:CI11">
-    <cfRule type="expression" dxfId="147" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="264" stopIfTrue="1">
       <formula>ISBLANK(CI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="265" stopIfTrue="1">
       <formula>OR(WEEKDAY(CI$3)=1,WEEKDAY(CI$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="266" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ3:CJ4">
-    <cfRule type="expression" dxfId="144" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="254" stopIfTrue="1">
       <formula>ISBLANK(CJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="255" stopIfTrue="1">
       <formula>OR(WEEKDAY(CJ$3)=1,WEEKDAY(CJ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ5:CJ8 CJ10:CJ11">
-    <cfRule type="expression" dxfId="142" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="256" stopIfTrue="1">
       <formula>ISBLANK(CJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="257" stopIfTrue="1">
       <formula>OR(WEEKDAY(CJ$3)=1,WEEKDAY(CJ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="258" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK3:CK4">
-    <cfRule type="expression" dxfId="139" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="246" stopIfTrue="1">
       <formula>ISBLANK(CK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="247" stopIfTrue="1">
       <formula>OR(WEEKDAY(CK$3)=1,WEEKDAY(CK$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK5:CK8 CK10:CK11">
-    <cfRule type="expression" dxfId="137" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="248" stopIfTrue="1">
       <formula>ISBLANK(CK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="249" stopIfTrue="1">
       <formula>OR(WEEKDAY(CK$3)=1,WEEKDAY(CK$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="250" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL3:CL4">
-    <cfRule type="expression" dxfId="134" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="238" stopIfTrue="1">
       <formula>ISBLANK(CL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="239" stopIfTrue="1">
       <formula>OR(WEEKDAY(CL$3)=1,WEEKDAY(CL$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL5:CL8 CL10:CL11">
-    <cfRule type="expression" dxfId="132" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="240" stopIfTrue="1">
       <formula>ISBLANK(CL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="241" stopIfTrue="1">
       <formula>OR(WEEKDAY(CL$3)=1,WEEKDAY(CL$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="242" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM3:CM4">
-    <cfRule type="expression" dxfId="129" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="230" stopIfTrue="1">
       <formula>ISBLANK(CM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="231" stopIfTrue="1">
       <formula>OR(WEEKDAY(CM$3)=1,WEEKDAY(CM$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM5:CM8 CM10:CM11">
-    <cfRule type="expression" dxfId="127" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="232" stopIfTrue="1">
       <formula>ISBLANK(CM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="233" stopIfTrue="1">
       <formula>OR(WEEKDAY(CM$3)=1,WEEKDAY(CM$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="234" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN3:CN4">
-    <cfRule type="expression" dxfId="124" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="222" stopIfTrue="1">
       <formula>ISBLANK(CN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="223" stopIfTrue="1">
       <formula>OR(WEEKDAY(CN$3)=1,WEEKDAY(CN$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN5:CN8 CN10:CN11">
-    <cfRule type="expression" dxfId="122" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="224" stopIfTrue="1">
       <formula>ISBLANK(CN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="225" stopIfTrue="1">
       <formula>OR(WEEKDAY(CN$3)=1,WEEKDAY(CN$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="226" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO3:CO4">
-    <cfRule type="expression" dxfId="119" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="214" stopIfTrue="1">
       <formula>ISBLANK(CO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="215" stopIfTrue="1">
       <formula>OR(WEEKDAY(CO$3)=1,WEEKDAY(CO$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO5:CO8 CO10:CO11">
-    <cfRule type="expression" dxfId="117" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="216" stopIfTrue="1">
       <formula>ISBLANK(CO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="217" stopIfTrue="1">
       <formula>OR(WEEKDAY(CO$3)=1,WEEKDAY(CO$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="218" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP3:CP4">
-    <cfRule type="expression" dxfId="114" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="206" stopIfTrue="1">
       <formula>ISBLANK(CP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="207" stopIfTrue="1">
       <formula>OR(WEEKDAY(CP$3)=1,WEEKDAY(CP$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP5:CP8 CP10:CP11">
-    <cfRule type="expression" dxfId="112" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="208" stopIfTrue="1">
       <formula>ISBLANK(CP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="209" stopIfTrue="1">
       <formula>OR(WEEKDAY(CP$3)=1,WEEKDAY(CP$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="210" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ3:CQ4">
-    <cfRule type="expression" dxfId="109" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="198" stopIfTrue="1">
       <formula>ISBLANK(CQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="199" stopIfTrue="1">
       <formula>OR(WEEKDAY(CQ$3)=1,WEEKDAY(CQ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ5:CQ8 CQ10:CQ11">
-    <cfRule type="expression" dxfId="107" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="200" stopIfTrue="1">
       <formula>ISBLANK(CQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="201" stopIfTrue="1">
       <formula>OR(WEEKDAY(CQ$3)=1,WEEKDAY(CQ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="202" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR3:CR4">
-    <cfRule type="expression" dxfId="104" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="190" stopIfTrue="1">
       <formula>ISBLANK(CR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="191" stopIfTrue="1">
       <formula>OR(WEEKDAY(CR$3)=1,WEEKDAY(CR$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR5:CR8 CR10:CR11">
-    <cfRule type="expression" dxfId="102" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="192" stopIfTrue="1">
       <formula>ISBLANK(CR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="193" stopIfTrue="1">
       <formula>OR(WEEKDAY(CR$3)=1,WEEKDAY(CR$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="194" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS3:CS4">
-    <cfRule type="expression" dxfId="99" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="182" stopIfTrue="1">
       <formula>ISBLANK(CS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="183" stopIfTrue="1">
       <formula>OR(WEEKDAY(CS$3)=1,WEEKDAY(CS$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS5:CS8 CS10:CS11">
-    <cfRule type="expression" dxfId="97" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="184" stopIfTrue="1">
       <formula>ISBLANK(CS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="185" stopIfTrue="1">
       <formula>OR(WEEKDAY(CS$3)=1,WEEKDAY(CS$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="186" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT3:CT4">
-    <cfRule type="expression" dxfId="94" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="174" stopIfTrue="1">
       <formula>ISBLANK(CT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="175" stopIfTrue="1">
       <formula>OR(WEEKDAY(CT$3)=1,WEEKDAY(CT$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT5:CT8 CT10:CT11">
-    <cfRule type="expression" dxfId="92" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="176" stopIfTrue="1">
       <formula>ISBLANK(CT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="177" stopIfTrue="1">
       <formula>OR(WEEKDAY(CT$3)=1,WEEKDAY(CT$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="178" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU3:CU4">
-    <cfRule type="expression" dxfId="89" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="166" stopIfTrue="1">
       <formula>ISBLANK(CU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="167" stopIfTrue="1">
       <formula>OR(WEEKDAY(CU$3)=1,WEEKDAY(CU$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU5:CU8 CU10:CU11">
-    <cfRule type="expression" dxfId="87" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="168" stopIfTrue="1">
       <formula>ISBLANK(CU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="169" stopIfTrue="1">
       <formula>OR(WEEKDAY(CU$3)=1,WEEKDAY(CU$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="170" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV3:CV4">
-    <cfRule type="expression" dxfId="84" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="158" stopIfTrue="1">
       <formula>ISBLANK(CV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="159" stopIfTrue="1">
       <formula>OR(WEEKDAY(CV$3)=1,WEEKDAY(CV$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV5:CV8 CV10:CV11">
-    <cfRule type="expression" dxfId="82" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="160" stopIfTrue="1">
       <formula>ISBLANK(CV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="161" stopIfTrue="1">
       <formula>OR(WEEKDAY(CV$3)=1,WEEKDAY(CV$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="162" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW3:CW4">
-    <cfRule type="expression" dxfId="79" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="150" stopIfTrue="1">
       <formula>ISBLANK(CW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="151" stopIfTrue="1">
       <formula>OR(WEEKDAY(CW$3)=1,WEEKDAY(CW$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW5:CW8 CW10:CW11">
-    <cfRule type="expression" dxfId="77" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="152" stopIfTrue="1">
       <formula>ISBLANK(CW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="153" stopIfTrue="1">
       <formula>OR(WEEKDAY(CW$3)=1,WEEKDAY(CW$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="154" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX3:CX4">
-    <cfRule type="expression" dxfId="74" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="142" stopIfTrue="1">
       <formula>ISBLANK(CX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="143" stopIfTrue="1">
       <formula>OR(WEEKDAY(CX$3)=1,WEEKDAY(CX$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX5:CX8 CX10:CX11">
-    <cfRule type="expression" dxfId="72" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="144" stopIfTrue="1">
       <formula>ISBLANK(CX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="145" stopIfTrue="1">
       <formula>OR(WEEKDAY(CX$3)=1,WEEKDAY(CX$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="146" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY3:CY4">
-    <cfRule type="expression" dxfId="69" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="134" stopIfTrue="1">
       <formula>ISBLANK(CY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="135" stopIfTrue="1">
       <formula>OR(WEEKDAY(CY$3)=1,WEEKDAY(CY$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY5:CY8 CY10:CY11">
-    <cfRule type="expression" dxfId="67" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="136" stopIfTrue="1">
       <formula>ISBLANK(CY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="137" stopIfTrue="1">
       <formula>OR(WEEKDAY(CY$3)=1,WEEKDAY(CY$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="138" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ3:CZ4">
-    <cfRule type="expression" dxfId="64" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="126" stopIfTrue="1">
       <formula>ISBLANK(CZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="127" stopIfTrue="1">
       <formula>OR(WEEKDAY(CZ$3)=1,WEEKDAY(CZ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ5:CZ8 CZ10:CZ11">
-    <cfRule type="expression" dxfId="62" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="128" stopIfTrue="1">
       <formula>ISBLANK(CZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="129" stopIfTrue="1">
       <formula>OR(WEEKDAY(CZ$3)=1,WEEKDAY(CZ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="130" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA3:DA4">
-    <cfRule type="expression" dxfId="59" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="118" stopIfTrue="1">
       <formula>ISBLANK(DA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="119" stopIfTrue="1">
       <formula>OR(WEEKDAY(DA$3)=1,WEEKDAY(DA$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA5:DA8 DA10:DA11">
-    <cfRule type="expression" dxfId="57" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="120" stopIfTrue="1">
       <formula>ISBLANK(DA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="121" stopIfTrue="1">
       <formula>OR(WEEKDAY(DA$3)=1,WEEKDAY(DA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="122" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DB3:DB4">
-    <cfRule type="expression" dxfId="54" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="110" stopIfTrue="1">
       <formula>ISBLANK(DB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="111" stopIfTrue="1">
       <formula>OR(WEEKDAY(DB$3)=1,WEEKDAY(DB$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DB5:DB8 DB10:DB11">
-    <cfRule type="expression" dxfId="52" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="112" stopIfTrue="1">
       <formula>ISBLANK(DB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="113" stopIfTrue="1">
       <formula>OR(WEEKDAY(DB$3)=1,WEEKDAY(DB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="114" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC3:DC4">
-    <cfRule type="expression" dxfId="49" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="102" stopIfTrue="1">
       <formula>ISBLANK(DC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="103" stopIfTrue="1">
       <formula>OR(WEEKDAY(DC$3)=1,WEEKDAY(DC$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC5:DC8 DC10:DC11">
-    <cfRule type="expression" dxfId="47" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="104" stopIfTrue="1">
       <formula>ISBLANK(DC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="105" stopIfTrue="1">
       <formula>OR(WEEKDAY(DC$3)=1,WEEKDAY(DC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="106" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD3:DD4">
-    <cfRule type="expression" dxfId="44" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="94" stopIfTrue="1">
       <formula>ISBLANK(DD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="95" stopIfTrue="1">
       <formula>OR(WEEKDAY(DD$3)=1,WEEKDAY(DD$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD5:DD8 DD10:DD11">
-    <cfRule type="expression" dxfId="42" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="96" stopIfTrue="1">
       <formula>ISBLANK(DD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="97" stopIfTrue="1">
       <formula>OR(WEEKDAY(DD$3)=1,WEEKDAY(DD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="98" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE3:DE4">
-    <cfRule type="expression" dxfId="39" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="86" stopIfTrue="1">
       <formula>ISBLANK(DE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="87" stopIfTrue="1">
       <formula>OR(WEEKDAY(DE$3)=1,WEEKDAY(DE$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE5:DE8 DE10:DE11">
-    <cfRule type="expression" dxfId="37" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="88" stopIfTrue="1">
       <formula>ISBLANK(DE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="89" stopIfTrue="1">
       <formula>OR(WEEKDAY(DE$3)=1,WEEKDAY(DE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="90" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E19 F14:F19">
-    <cfRule type="expression" dxfId="34" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:E27 G27:H27 E28:E31 F29:F31">
-    <cfRule type="expression" dxfId="33" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="32" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:D28 G28:H28">
-    <cfRule type="expression" dxfId="31" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:H32 H33:H34 C33:G35">
-    <cfRule type="expression" dxfId="30" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:DE35">
-    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
       <formula>ISBLANK(I$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="33" stopIfTrue="1">
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="25" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B35">
-    <cfRule type="expression" dxfId="24" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:DE30">
-    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="26" stopIfTrue="1">
       <formula>ISBLANK(I$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H30 C29:D31 G29:G31">
-    <cfRule type="expression" dxfId="19" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:DE31">
-    <cfRule type="expression" dxfId="17" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>ISBLANK(I$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="14" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B31">
-    <cfRule type="expression" dxfId="13" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47">
-    <cfRule type="expression" dxfId="10" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:B61 H59:H61">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="A62:B64 H62:H64">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:DE61">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="I62:DE64">
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
       <formula>ISBLANK(I$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="F56">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58:F61">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="E61:F64">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="F55">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70:G72">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:G75">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:G78">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
